--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -5477,28 +5477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3413.797630314194</v>
+        <v>3596.475706464203</v>
       </c>
       <c r="AB2" t="n">
-        <v>4670.908523918351</v>
+        <v>4920.856726894738</v>
       </c>
       <c r="AC2" t="n">
-        <v>4225.123570056694</v>
+        <v>4451.217067345511</v>
       </c>
       <c r="AD2" t="n">
-        <v>3413797.630314194</v>
+        <v>3596475.706464203</v>
       </c>
       <c r="AE2" t="n">
-        <v>4670908.523918351</v>
+        <v>4920856.726894738</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.341645843766494e-07</v>
+        <v>9.883443330926075e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.44907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>4225123.570056694</v>
+        <v>4451217.067345511</v>
       </c>
     </row>
     <row r="3">
@@ -5583,28 +5583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2012.806576663555</v>
+        <v>2134.677331454316</v>
       </c>
       <c r="AB3" t="n">
-        <v>2754.010756950136</v>
+        <v>2920.759700213098</v>
       </c>
       <c r="AC3" t="n">
-        <v>2491.171835585188</v>
+        <v>2642.006493736745</v>
       </c>
       <c r="AD3" t="n">
-        <v>2012806.576663555</v>
+        <v>2134677.331454316</v>
       </c>
       <c r="AE3" t="n">
-        <v>2754010.756950136</v>
+        <v>2920759.700213098</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.544792467952952e-07</v>
+        <v>1.395984140124708e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.14178240740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>2491171.835585188</v>
+        <v>2642006.493736745</v>
       </c>
     </row>
     <row r="4">
@@ -5689,28 +5689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1709.882591309853</v>
+        <v>1819.557745486936</v>
       </c>
       <c r="AB4" t="n">
-        <v>2339.536796126156</v>
+        <v>2489.599180597557</v>
       </c>
       <c r="AC4" t="n">
-        <v>2116.254687864391</v>
+        <v>2251.995328975721</v>
       </c>
       <c r="AD4" t="n">
-        <v>1709882.591309853</v>
+        <v>1819557.745486936</v>
       </c>
       <c r="AE4" t="n">
-        <v>2339536.796126156</v>
+        <v>2489599.180597557</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.41082078339597e-07</v>
+        <v>1.556222052352582e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.06712962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>2116254.687864391</v>
+        <v>2251995.328975721</v>
       </c>
     </row>
     <row r="5">
@@ -5795,28 +5795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1568.687819956475</v>
+        <v>1666.252714374451</v>
       </c>
       <c r="AB5" t="n">
-        <v>2146.347880886777</v>
+        <v>2279.840473688815</v>
       </c>
       <c r="AC5" t="n">
-        <v>1941.503451553114</v>
+        <v>2062.255698656155</v>
       </c>
       <c r="AD5" t="n">
-        <v>1568687.819956475</v>
+        <v>1666252.714374451</v>
       </c>
       <c r="AE5" t="n">
-        <v>2146347.880886777</v>
+        <v>2279840.473688815</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.88978853578168e-07</v>
+        <v>1.644843626610812e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.09490740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>1941503.451553114</v>
+        <v>2062255.698656155</v>
       </c>
     </row>
     <row r="6">
@@ -5901,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1484.707110188722</v>
+        <v>1594.382174857254</v>
       </c>
       <c r="AB6" t="n">
-        <v>2031.441768815107</v>
+        <v>2181.50403081696</v>
       </c>
       <c r="AC6" t="n">
-        <v>1837.563817545822</v>
+        <v>1973.304347875925</v>
       </c>
       <c r="AD6" t="n">
-        <v>1484707.110188722</v>
+        <v>1594382.174857254</v>
       </c>
       <c r="AE6" t="n">
-        <v>2031441.768815107</v>
+        <v>2181504.03081696</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.173913046791184e-07</v>
+        <v>1.69741409993724e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.56539351851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>1837563.817545822</v>
+        <v>1973304.347875925</v>
       </c>
     </row>
     <row r="7">
@@ -6007,28 +6007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1433.390181589807</v>
+        <v>1530.869735153212</v>
       </c>
       <c r="AB7" t="n">
-        <v>1961.227683162963</v>
+        <v>2094.603508842803</v>
       </c>
       <c r="AC7" t="n">
-        <v>1774.050865682231</v>
+        <v>1894.697489753333</v>
       </c>
       <c r="AD7" t="n">
-        <v>1433390.181589807</v>
+        <v>1530869.735153212</v>
       </c>
       <c r="AE7" t="n">
-        <v>1961227.683162963</v>
+        <v>2094603.508842803</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.379785150886795e-07</v>
+        <v>1.735505829223672e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.20081018518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>1774050.865682231</v>
+        <v>1894697.489753333</v>
       </c>
     </row>
     <row r="8">
@@ -6113,28 +6113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1381.573634314571</v>
+        <v>1491.163358128531</v>
       </c>
       <c r="AB8" t="n">
-        <v>1890.329997196256</v>
+        <v>2040.27549207591</v>
       </c>
       <c r="AC8" t="n">
-        <v>1709.919555358658</v>
+        <v>1845.554462656823</v>
       </c>
       <c r="AD8" t="n">
-        <v>1381573.634314571</v>
+        <v>1491163.358128531</v>
       </c>
       <c r="AE8" t="n">
-        <v>1890329.997196255</v>
+        <v>2040275.49207591</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.52893738956831e-07</v>
+        <v>1.763102898400577e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.94907407407407</v>
       </c>
       <c r="AH8" t="n">
-        <v>1709919.555358658</v>
+        <v>1845554.462656823</v>
       </c>
     </row>
     <row r="9">
@@ -6219,28 +6219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1353.618301922213</v>
+        <v>1451.183106831638</v>
       </c>
       <c r="AB9" t="n">
-        <v>1852.080278114808</v>
+        <v>1985.572748447297</v>
       </c>
       <c r="AC9" t="n">
-        <v>1675.320335782527</v>
+        <v>1796.072472104341</v>
       </c>
       <c r="AD9" t="n">
-        <v>1353618.301922213</v>
+        <v>1451183.106831638</v>
       </c>
       <c r="AE9" t="n">
-        <v>1852080.278114808</v>
+        <v>1985572.748447297</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.630823073738077e-07</v>
+        <v>1.78195441748621e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.77835648148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>1675320.335782527</v>
+        <v>1796072.472104341</v>
       </c>
     </row>
     <row r="10">
@@ -6325,28 +6325,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1325.704837426436</v>
+        <v>1423.269642335862</v>
       </c>
       <c r="AB10" t="n">
-        <v>1813.887844536545</v>
+        <v>1947.380314869034</v>
       </c>
       <c r="AC10" t="n">
-        <v>1640.772934461556</v>
+        <v>1761.525070783371</v>
       </c>
       <c r="AD10" t="n">
-        <v>1325704.837426436</v>
+        <v>1423269.642335862</v>
       </c>
       <c r="AE10" t="n">
-        <v>1813887.844536545</v>
+        <v>1947380.314869034</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.725881366700594e-07</v>
+        <v>1.799542690447547e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1640772.934461556</v>
+        <v>1761525.070783371</v>
       </c>
     </row>
     <row r="11">
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1305.15052313855</v>
+        <v>1402.715328047975</v>
       </c>
       <c r="AB11" t="n">
-        <v>1785.764524935511</v>
+        <v>1919.256995268</v>
       </c>
       <c r="AC11" t="n">
-        <v>1615.333665011917</v>
+        <v>1736.085801333732</v>
       </c>
       <c r="AD11" t="n">
-        <v>1305150.52313855</v>
+        <v>1402715.328047975</v>
       </c>
       <c r="AE11" t="n">
-        <v>1785764.524935511</v>
+        <v>1919256.995268</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.787327887565863e-07</v>
+        <v>1.810911905566201e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.52662037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>1615333.665011917</v>
+        <v>1736085.801333732</v>
       </c>
     </row>
     <row r="12">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1282.969458793194</v>
+        <v>1380.363671502027</v>
       </c>
       <c r="AB12" t="n">
-        <v>1755.415414138699</v>
+        <v>1888.674472696341</v>
       </c>
       <c r="AC12" t="n">
-        <v>1587.881030754309</v>
+        <v>1708.422031793473</v>
       </c>
       <c r="AD12" t="n">
-        <v>1282969.458793194</v>
+        <v>1380363.671502027</v>
       </c>
       <c r="AE12" t="n">
-        <v>1755415.414138699</v>
+        <v>1888674.472696341</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.857177351455446e-07</v>
+        <v>1.823835885145527e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1587881.030754309</v>
+        <v>1708422.031793473</v>
       </c>
     </row>
     <row r="13">
@@ -6643,28 +6643,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1264.295594520921</v>
+        <v>1361.689807229754</v>
       </c>
       <c r="AB13" t="n">
-        <v>1729.865009208626</v>
+        <v>1863.124067766268</v>
       </c>
       <c r="AC13" t="n">
-        <v>1564.769120610543</v>
+        <v>1685.310121649708</v>
       </c>
       <c r="AD13" t="n">
-        <v>1264295.594520921</v>
+        <v>1361689.807229754</v>
       </c>
       <c r="AE13" t="n">
-        <v>1729865.009208626</v>
+        <v>1863124.067766268</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.898141698698961e-07</v>
+        <v>1.831415361891296e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.35300925925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>1564769.120610544</v>
+        <v>1685310.121649707</v>
       </c>
     </row>
     <row r="14">
@@ -6749,28 +6749,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1244.957287226762</v>
+        <v>1342.351499935595</v>
       </c>
       <c r="AB14" t="n">
-        <v>1703.405484022853</v>
+        <v>1836.664542580495</v>
       </c>
       <c r="AC14" t="n">
-        <v>1540.834855372323</v>
+        <v>1661.375856411488</v>
       </c>
       <c r="AD14" t="n">
-        <v>1244957.287226762</v>
+        <v>1342351.499935595</v>
       </c>
       <c r="AE14" t="n">
-        <v>1703405.484022853</v>
+        <v>1836664.542580495</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.942782333515611e-07</v>
+        <v>1.839675048088609e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.28356481481481</v>
       </c>
       <c r="AH14" t="n">
-        <v>1540834.855372323</v>
+        <v>1661375.856411488</v>
       </c>
     </row>
     <row r="15">
@@ -6855,28 +6855,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1231.87592778242</v>
+        <v>1329.270140491253</v>
       </c>
       <c r="AB15" t="n">
-        <v>1685.506990922256</v>
+        <v>1818.766049479898</v>
       </c>
       <c r="AC15" t="n">
-        <v>1524.644569332554</v>
+        <v>1645.185570371718</v>
       </c>
       <c r="AD15" t="n">
-        <v>1231875.92778242</v>
+        <v>1329270.140491253</v>
       </c>
       <c r="AE15" t="n">
-        <v>1685506.990922256</v>
+        <v>1818766.049479898</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.973768185917757e-07</v>
+        <v>1.845408242037333e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.23726851851852</v>
       </c>
       <c r="AH15" t="n">
-        <v>1524644.569332554</v>
+        <v>1645185.570371718</v>
       </c>
     </row>
     <row r="16">
@@ -6961,28 +6961,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1211.98459366054</v>
+        <v>1309.378806369373</v>
       </c>
       <c r="AB16" t="n">
-        <v>1658.290790032972</v>
+        <v>1791.549848590614</v>
       </c>
       <c r="AC16" t="n">
-        <v>1500.025844457966</v>
+        <v>1620.56684549713</v>
       </c>
       <c r="AD16" t="n">
-        <v>1211984.59366054</v>
+        <v>1309378.806369374</v>
       </c>
       <c r="AE16" t="n">
-        <v>1658290.790032972</v>
+        <v>1791549.848590614</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.000685477407598e-06</v>
+        <v>1.851530127101224e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.18518518518519</v>
       </c>
       <c r="AH16" t="n">
-        <v>1500025.844457966</v>
+        <v>1620566.84549713</v>
       </c>
     </row>
     <row r="17">
@@ -7067,28 +7067,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1192.929355475062</v>
+        <v>1278.29864927936</v>
       </c>
       <c r="AB17" t="n">
-        <v>1632.218572489823</v>
+        <v>1749.0246065003</v>
       </c>
       <c r="AC17" t="n">
-        <v>1476.441922764548</v>
+        <v>1582.100152827363</v>
       </c>
       <c r="AD17" t="n">
-        <v>1192929.355475062</v>
+        <v>1278298.64927936</v>
       </c>
       <c r="AE17" t="n">
-        <v>1632218.572489823</v>
+        <v>1749024.6065003</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.004466801768538e-06</v>
+        <v>1.858526567174242e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.12731481481482</v>
       </c>
       <c r="AH17" t="n">
-        <v>1476441.922764548</v>
+        <v>1582100.152827363</v>
       </c>
     </row>
     <row r="18">
@@ -7173,28 +7173,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1182.130195871799</v>
+        <v>1267.499489676097</v>
       </c>
       <c r="AB18" t="n">
-        <v>1617.442685895341</v>
+        <v>1734.248719905818</v>
       </c>
       <c r="AC18" t="n">
-        <v>1463.076226048556</v>
+        <v>1568.734456111372</v>
       </c>
       <c r="AD18" t="n">
-        <v>1182130.195871799</v>
+        <v>1267499.489676097</v>
       </c>
       <c r="AE18" t="n">
-        <v>1617442.685895341</v>
+        <v>1734248.719905818</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.005202059283165e-06</v>
+        <v>1.859886986077329e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.11863425925926</v>
       </c>
       <c r="AH18" t="n">
-        <v>1463076.226048556</v>
+        <v>1568734.456111372</v>
       </c>
     </row>
     <row r="19">
@@ -7279,28 +7279,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1169.592889042628</v>
+        <v>1254.962182846926</v>
       </c>
       <c r="AB19" t="n">
-        <v>1600.288589584728</v>
+        <v>1717.094623595205</v>
       </c>
       <c r="AC19" t="n">
-        <v>1447.559292613903</v>
+        <v>1553.217522676718</v>
       </c>
       <c r="AD19" t="n">
-        <v>1169592.889042628</v>
+        <v>1254962.182846926</v>
       </c>
       <c r="AE19" t="n">
-        <v>1600288.589584728</v>
+        <v>1717094.623595205</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.007985534159968e-06</v>
+        <v>1.8650371433533e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15.07523148148148</v>
       </c>
       <c r="AH19" t="n">
-        <v>1447559.292613903</v>
+        <v>1553217.522676718</v>
       </c>
     </row>
     <row r="20">
@@ -7385,28 +7385,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1172.348444312305</v>
+        <v>1257.717738116603</v>
       </c>
       <c r="AB20" t="n">
-        <v>1604.058861871219</v>
+        <v>1720.864895881695</v>
       </c>
       <c r="AC20" t="n">
-        <v>1450.969735404982</v>
+        <v>1556.627965467797</v>
       </c>
       <c r="AD20" t="n">
-        <v>1172348.444312305</v>
+        <v>1257717.738116603</v>
       </c>
       <c r="AE20" t="n">
-        <v>1604058.861871219</v>
+        <v>1720864.895881695</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.007670423796556e-06</v>
+        <v>1.864454106680549e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15.08101851851852</v>
       </c>
       <c r="AH20" t="n">
-        <v>1450969.735404982</v>
+        <v>1556627.965467797</v>
       </c>
     </row>
     <row r="21">
@@ -7491,28 +7491,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1175.533891412054</v>
+        <v>1260.903185216352</v>
       </c>
       <c r="AB21" t="n">
-        <v>1608.417331125104</v>
+        <v>1725.22336513558</v>
       </c>
       <c r="AC21" t="n">
-        <v>1454.912238470426</v>
+        <v>1560.57046853324</v>
       </c>
       <c r="AD21" t="n">
-        <v>1175533.891412054</v>
+        <v>1260903.185216352</v>
       </c>
       <c r="AE21" t="n">
-        <v>1608417.331125104</v>
+        <v>1725223.36513558</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.007092721463635e-06</v>
+        <v>1.863385206113838e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15.08969907407407</v>
       </c>
       <c r="AH21" t="n">
-        <v>1454912.238470426</v>
+        <v>1560570.46853324</v>
       </c>
     </row>
   </sheetData>
@@ -7788,28 +7788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2534.383727889307</v>
+        <v>2687.22664476006</v>
       </c>
       <c r="AB2" t="n">
-        <v>3467.655625617331</v>
+        <v>3676.782047433505</v>
       </c>
       <c r="AC2" t="n">
-        <v>3136.70743959352</v>
+        <v>3325.875129222327</v>
       </c>
       <c r="AD2" t="n">
-        <v>2534383.727889307</v>
+        <v>2687226.64476006</v>
       </c>
       <c r="AE2" t="n">
-        <v>3467655.625617331</v>
+        <v>3676782.047433505</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.323958888528819e-07</v>
+        <v>1.205444163328001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.85821759259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>3136707.43959352</v>
+        <v>3325875.129222327</v>
       </c>
     </row>
     <row r="3">
@@ -7894,28 +7894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1638.477799159715</v>
+        <v>1756.029579632316</v>
       </c>
       <c r="AB3" t="n">
-        <v>2241.837609349234</v>
+        <v>2402.67714141039</v>
       </c>
       <c r="AC3" t="n">
-        <v>2027.879774351788</v>
+        <v>2173.369007212729</v>
       </c>
       <c r="AD3" t="n">
-        <v>1638477.799159715</v>
+        <v>1756029.579632316</v>
       </c>
       <c r="AE3" t="n">
-        <v>2241837.609349234</v>
+        <v>2402677.141410389</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.364576550497398e-07</v>
+        <v>1.594417383041057e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.79340277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2027879.774351788</v>
+        <v>2173369.007212729</v>
       </c>
     </row>
     <row r="4">
@@ -8000,28 +8000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1430.156804473033</v>
+        <v>1535.859621466896</v>
       </c>
       <c r="AB4" t="n">
-        <v>1956.803633945262</v>
+        <v>2101.430891435434</v>
       </c>
       <c r="AC4" t="n">
-        <v>1770.049041512675</v>
+        <v>1900.873276533615</v>
       </c>
       <c r="AD4" t="n">
-        <v>1430156.804473033</v>
+        <v>1535859.621466896</v>
       </c>
       <c r="AE4" t="n">
-        <v>1956803.633945262</v>
+        <v>2101430.891435434</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.140402434760211e-07</v>
+        <v>1.742301770088513e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.19907407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>1770049.041512675</v>
+        <v>1900873.276533615</v>
       </c>
     </row>
     <row r="5">
@@ -8106,28 +8106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1327.190344239488</v>
+        <v>1421.214789955206</v>
       </c>
       <c r="AB5" t="n">
-        <v>1815.920380494098</v>
+        <v>1944.568775188131</v>
       </c>
       <c r="AC5" t="n">
-        <v>1642.611488040002</v>
+        <v>1758.981860503593</v>
       </c>
       <c r="AD5" t="n">
-        <v>1327190.344239488</v>
+        <v>1421214.789955206</v>
       </c>
       <c r="AE5" t="n">
-        <v>1815920.380494098</v>
+        <v>1944568.775188131</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.541354467383431e-07</v>
+        <v>1.818729415495391e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.47569444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>1642611.488040002</v>
+        <v>1758981.860503593</v>
       </c>
     </row>
     <row r="6">
@@ -8212,28 +8212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1268.098880378257</v>
+        <v>1362.123326093974</v>
       </c>
       <c r="AB6" t="n">
-        <v>1735.068832707763</v>
+        <v>1863.717227401797</v>
       </c>
       <c r="AC6" t="n">
-        <v>1569.476298498535</v>
+        <v>1685.846670962126</v>
       </c>
       <c r="AD6" t="n">
-        <v>1268098.880378257</v>
+        <v>1362123.326093974</v>
       </c>
       <c r="AE6" t="n">
-        <v>1735068.832707763</v>
+        <v>1863717.227401797</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.797246618285241e-07</v>
+        <v>1.86750640870222e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.04745370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>1569476.298498535</v>
+        <v>1685846.670962126</v>
       </c>
     </row>
     <row r="7">
@@ -8318,28 +8318,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1215.070333434683</v>
+        <v>1309.18003049642</v>
       </c>
       <c r="AB7" t="n">
-        <v>1662.512835325185</v>
+        <v>1791.277874671867</v>
       </c>
       <c r="AC7" t="n">
-        <v>1503.844943673168</v>
+        <v>1620.320828387471</v>
       </c>
       <c r="AD7" t="n">
-        <v>1215070.333434683</v>
+        <v>1309180.03049642</v>
       </c>
       <c r="AE7" t="n">
-        <v>1662512.835325185</v>
+        <v>1791277.874671868</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.971644453613227e-07</v>
+        <v>1.900749327639358e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.76388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1503844.943673168</v>
+        <v>1620320.828387471</v>
       </c>
     </row>
     <row r="8">
@@ -8424,28 +8424,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1182.533171160366</v>
+        <v>1276.642868222104</v>
       </c>
       <c r="AB8" t="n">
-        <v>1617.994054463173</v>
+        <v>1746.759093809855</v>
       </c>
       <c r="AC8" t="n">
-        <v>1463.574972774125</v>
+        <v>1580.050857488428</v>
       </c>
       <c r="AD8" t="n">
-        <v>1182533.171160366</v>
+        <v>1276642.868222103</v>
       </c>
       <c r="AE8" t="n">
-        <v>1617994.054463173</v>
+        <v>1746759.093809855</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.009171274522533e-06</v>
+        <v>1.92363619706337e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.5787037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1463574.972774125</v>
+        <v>1580050.857488428</v>
       </c>
     </row>
     <row r="9">
@@ -8530,28 +8530,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1151.887252956583</v>
+        <v>1245.826357817729</v>
       </c>
       <c r="AB9" t="n">
-        <v>1576.062957174267</v>
+        <v>1704.594584746103</v>
       </c>
       <c r="AC9" t="n">
-        <v>1425.645720559807</v>
+        <v>1541.910469991459</v>
       </c>
       <c r="AD9" t="n">
-        <v>1151887.252956583</v>
+        <v>1245826.357817729</v>
       </c>
       <c r="AE9" t="n">
-        <v>1576062.957174267</v>
+        <v>1704594.584746103</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.01884193330396e-06</v>
+        <v>1.942069965196735e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.42824074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>1425645.720559807</v>
+        <v>1541910.46999146</v>
       </c>
     </row>
     <row r="10">
@@ -8636,28 +8636,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1128.211334288103</v>
+        <v>1222.150439149249</v>
       </c>
       <c r="AB10" t="n">
-        <v>1543.668520744238</v>
+        <v>1672.200148316074</v>
       </c>
       <c r="AC10" t="n">
-        <v>1396.342963676783</v>
+        <v>1512.607713108435</v>
       </c>
       <c r="AD10" t="n">
-        <v>1128211.334288103</v>
+        <v>1222150.439149249</v>
       </c>
       <c r="AE10" t="n">
-        <v>1543668.520744238</v>
+        <v>1672200.148316074</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.025796114899593e-06</v>
+        <v>1.955325708573539e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.32407407407407</v>
       </c>
       <c r="AH10" t="n">
-        <v>1396342.963676783</v>
+        <v>1512607.713108435</v>
       </c>
     </row>
     <row r="11">
@@ -8742,28 +8742,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1099.942275090668</v>
+        <v>1193.881379951814</v>
       </c>
       <c r="AB11" t="n">
-        <v>1504.989546807434</v>
+        <v>1633.52117437927</v>
       </c>
       <c r="AC11" t="n">
-        <v>1361.355456726227</v>
+        <v>1477.620206157879</v>
       </c>
       <c r="AD11" t="n">
-        <v>1099942.275090668</v>
+        <v>1193881.379951814</v>
       </c>
       <c r="AE11" t="n">
-        <v>1504989.546807434</v>
+        <v>1633521.17437927</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.032587307864079e-06</v>
+        <v>1.968270770464948e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.22280092592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>1361355.456726227</v>
+        <v>1477620.206157879</v>
       </c>
     </row>
     <row r="12">
@@ -8848,28 +8848,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1079.5376180476</v>
+        <v>1161.883692485172</v>
       </c>
       <c r="AB12" t="n">
-        <v>1477.070994851172</v>
+        <v>1589.740526749068</v>
       </c>
       <c r="AC12" t="n">
-        <v>1336.101412184737</v>
+        <v>1438.017922090979</v>
       </c>
       <c r="AD12" t="n">
-        <v>1079537.6180476</v>
+        <v>1161883.692485172</v>
       </c>
       <c r="AE12" t="n">
-        <v>1477070.994851172</v>
+        <v>1589740.526749068</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.038020262235667e-06</v>
+        <v>1.978626819978075e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.14467592592593</v>
       </c>
       <c r="AH12" t="n">
-        <v>1336101.412184737</v>
+        <v>1438017.922090979</v>
       </c>
     </row>
     <row r="13">
@@ -8954,28 +8954,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1061.874161221325</v>
+        <v>1144.220235658896</v>
       </c>
       <c r="AB13" t="n">
-        <v>1452.903073964744</v>
+        <v>1565.57260586264</v>
       </c>
       <c r="AC13" t="n">
-        <v>1314.24004374782</v>
+        <v>1416.156553654062</v>
       </c>
       <c r="AD13" t="n">
-        <v>1061874.161221325</v>
+        <v>1144220.235658896</v>
       </c>
       <c r="AE13" t="n">
-        <v>1452903.073964744</v>
+        <v>1565572.60586264</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.041062716683756e-06</v>
+        <v>1.984426207705425e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.10127314814815</v>
       </c>
       <c r="AH13" t="n">
-        <v>1314240.04374782</v>
+        <v>1416156.553654062</v>
       </c>
     </row>
     <row r="14">
@@ -9060,28 +9060,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1051.266665926636</v>
+        <v>1133.612740364208</v>
       </c>
       <c r="AB14" t="n">
-        <v>1438.389430932887</v>
+        <v>1551.058962830782</v>
       </c>
       <c r="AC14" t="n">
-        <v>1301.111562436896</v>
+        <v>1403.028072343139</v>
       </c>
       <c r="AD14" t="n">
-        <v>1051266.665926636</v>
+        <v>1133612.740364208</v>
       </c>
       <c r="AE14" t="n">
-        <v>1438389.430932887</v>
+        <v>1551058.962830782</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.043018580257528e-06</v>
+        <v>1.988154385530151e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.07233796296296</v>
       </c>
       <c r="AH14" t="n">
-        <v>1301111.562436896</v>
+        <v>1403028.072343139</v>
       </c>
     </row>
     <row r="15">
@@ -9166,28 +9166,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1054.115543278775</v>
+        <v>1136.461617716347</v>
       </c>
       <c r="AB15" t="n">
-        <v>1442.287390609681</v>
+        <v>1554.956922507577</v>
       </c>
       <c r="AC15" t="n">
-        <v>1304.637506312959</v>
+        <v>1406.554016219201</v>
       </c>
       <c r="AD15" t="n">
-        <v>1054115.543278775</v>
+        <v>1136461.617716347</v>
       </c>
       <c r="AE15" t="n">
-        <v>1442287.390609681</v>
+        <v>1554956.922507578</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.042529614364085e-06</v>
+        <v>1.98722234107397e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.078125</v>
       </c>
       <c r="AH15" t="n">
-        <v>1304637.506312959</v>
+        <v>1406554.016219201</v>
       </c>
     </row>
     <row r="16">
@@ -9272,28 +9272,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1058.476647532179</v>
+        <v>1140.822721969751</v>
       </c>
       <c r="AB16" t="n">
-        <v>1448.254445847529</v>
+        <v>1560.923977745425</v>
       </c>
       <c r="AC16" t="n">
-        <v>1310.035074173722</v>
+        <v>1411.951584079963</v>
       </c>
       <c r="AD16" t="n">
-        <v>1058476.647532179</v>
+        <v>1140822.72196975</v>
       </c>
       <c r="AE16" t="n">
-        <v>1448254.445847529</v>
+        <v>1560923.977745425</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.042529614364085e-06</v>
+        <v>1.98722234107397e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.078125</v>
       </c>
       <c r="AH16" t="n">
-        <v>1310035.074173721</v>
+        <v>1411951.584079963</v>
       </c>
     </row>
   </sheetData>
@@ -9569,28 +9569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1151.317987446638</v>
+        <v>1255.867071503975</v>
       </c>
       <c r="AB2" t="n">
-        <v>1575.284062989337</v>
+        <v>1718.332732176649</v>
       </c>
       <c r="AC2" t="n">
-        <v>1424.941162942702</v>
+        <v>1554.337467912846</v>
       </c>
       <c r="AD2" t="n">
-        <v>1151317.987446638</v>
+        <v>1255867.071503975</v>
       </c>
       <c r="AE2" t="n">
-        <v>1575284.062989337</v>
+        <v>1718332.732176649</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.419128535688427e-07</v>
+        <v>2.00602787674403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.62268518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>1424941.162942702</v>
+        <v>1554337.467912846</v>
       </c>
     </row>
     <row r="3">
@@ -9675,28 +9675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>902.745273538472</v>
+        <v>986.3675621219784</v>
       </c>
       <c r="AB3" t="n">
-        <v>1235.175909566006</v>
+        <v>1349.591613960965</v>
       </c>
       <c r="AC3" t="n">
-        <v>1117.292454337303</v>
+        <v>1220.788484488256</v>
       </c>
       <c r="AD3" t="n">
-        <v>902745.273538472</v>
+        <v>986367.5621219784</v>
       </c>
       <c r="AE3" t="n">
-        <v>1235175.909566006</v>
+        <v>1349591.613960965</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.080741484235808e-06</v>
+        <v>2.301696528204661e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.22974537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1117292.454337303</v>
+        <v>1220788.484488256</v>
       </c>
     </row>
     <row r="4">
@@ -9781,28 +9781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>806.4019644650584</v>
+        <v>890.1095043945855</v>
       </c>
       <c r="AB4" t="n">
-        <v>1103.354743724941</v>
+        <v>1217.887092772549</v>
       </c>
       <c r="AC4" t="n">
-        <v>998.0521155519413</v>
+        <v>1101.653657953607</v>
       </c>
       <c r="AD4" t="n">
-        <v>806401.9644650584</v>
+        <v>890109.5043945855</v>
       </c>
       <c r="AE4" t="n">
-        <v>1103354.743724942</v>
+        <v>1217887.092772549</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.130453046308696e-06</v>
+        <v>2.40756914575825e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.51793981481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>998052.1155519412</v>
+        <v>1101653.657953607</v>
       </c>
     </row>
     <row r="5">
@@ -9887,28 +9887,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>771.8635292778474</v>
+        <v>855.4004770067822</v>
       </c>
       <c r="AB5" t="n">
-        <v>1056.097732973578</v>
+        <v>1170.396670246339</v>
       </c>
       <c r="AC5" t="n">
-        <v>955.3052475810568</v>
+        <v>1058.695654700071</v>
       </c>
       <c r="AD5" t="n">
-        <v>771863.5292778474</v>
+        <v>855400.4770067822</v>
       </c>
       <c r="AE5" t="n">
-        <v>1056097.732973578</v>
+        <v>1170396.670246339</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.146033377348613e-06</v>
+        <v>2.440751173454924e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.30671296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>955305.2475810569</v>
+        <v>1058695.654700071</v>
       </c>
     </row>
     <row r="6">
@@ -9993,28 +9993,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>775.1359550180149</v>
+        <v>858.6729027469496</v>
       </c>
       <c r="AB6" t="n">
-        <v>1060.57521024051</v>
+        <v>1174.874147513271</v>
       </c>
       <c r="AC6" t="n">
-        <v>959.3554007018115</v>
+        <v>1062.745807820826</v>
       </c>
       <c r="AD6" t="n">
-        <v>775135.9550180149</v>
+        <v>858672.9027469496</v>
       </c>
       <c r="AE6" t="n">
-        <v>1060575.21024051</v>
+        <v>1174874.147513271</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.146882111335223e-06</v>
+        <v>2.442558754730229e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.29513888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>959355.4007018115</v>
+        <v>1062745.807820826</v>
       </c>
     </row>
   </sheetData>
@@ -10290,28 +10290,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1561.476343232109</v>
+        <v>1682.080758885741</v>
       </c>
       <c r="AB2" t="n">
-        <v>2136.4808202846</v>
+        <v>2301.497102473203</v>
       </c>
       <c r="AC2" t="n">
-        <v>1932.578089366302</v>
+        <v>2081.845449184631</v>
       </c>
       <c r="AD2" t="n">
-        <v>1561476.343232109</v>
+        <v>1682080.758885741</v>
       </c>
       <c r="AE2" t="n">
-        <v>2136480.8202846</v>
+        <v>2301497.102473203</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.176985676685247e-07</v>
+        <v>1.660210796652128e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.52372685185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1932578.089366302</v>
+        <v>2081845.449184631</v>
       </c>
     </row>
     <row r="3">
@@ -10396,28 +10396,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1154.129002235293</v>
+        <v>1241.903460113447</v>
       </c>
       <c r="AB3" t="n">
-        <v>1579.130217436395</v>
+        <v>1699.227103041071</v>
       </c>
       <c r="AC3" t="n">
-        <v>1428.420245807445</v>
+        <v>1537.055253207048</v>
       </c>
       <c r="AD3" t="n">
-        <v>1154129.002235293</v>
+        <v>1241903.460113447</v>
       </c>
       <c r="AE3" t="n">
-        <v>1579130.217436395</v>
+        <v>1699227.103041071</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.844397111572125e-07</v>
+        <v>1.998752965626869e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.04571759259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>1428420.245807445</v>
+        <v>1537055.253207048</v>
       </c>
     </row>
     <row r="4">
@@ -10502,28 +10502,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1035.12501558774</v>
+        <v>1122.814132611322</v>
       </c>
       <c r="AB4" t="n">
-        <v>1416.303712819854</v>
+        <v>1536.283831302332</v>
       </c>
       <c r="AC4" t="n">
-        <v>1281.133674263072</v>
+        <v>1389.663058630737</v>
       </c>
       <c r="AD4" t="n">
-        <v>1035125.01558774</v>
+        <v>1122814.132611322</v>
       </c>
       <c r="AE4" t="n">
-        <v>1416303.712819854</v>
+        <v>1536283.831302332</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.043422578262602e-06</v>
+        <v>2.118508578095499e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.08217592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>1281133.674263072</v>
+        <v>1389663.058630737</v>
       </c>
     </row>
     <row r="5">
@@ -10608,28 +10608,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>959.4023748061171</v>
+        <v>1047.17674317572</v>
       </c>
       <c r="AB5" t="n">
-        <v>1312.696655055298</v>
+        <v>1432.793418190426</v>
       </c>
       <c r="AC5" t="n">
-        <v>1187.414728678147</v>
+        <v>1296.049625296523</v>
       </c>
       <c r="AD5" t="n">
-        <v>959402.3748061172</v>
+        <v>1047176.74317572</v>
       </c>
       <c r="AE5" t="n">
-        <v>1312696.655055298</v>
+        <v>1432793.418190426</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.075146893215059e-06</v>
+        <v>2.182919905549128e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.60763888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1187414.728678147</v>
+        <v>1296049.625296523</v>
       </c>
     </row>
     <row r="6">
@@ -10714,28 +10714,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>914.5903185506259</v>
+        <v>1002.194094719636</v>
       </c>
       <c r="AB6" t="n">
-        <v>1251.38282271814</v>
+        <v>1371.246174078421</v>
       </c>
       <c r="AC6" t="n">
-        <v>1131.952602444743</v>
+        <v>1240.376363780468</v>
       </c>
       <c r="AD6" t="n">
-        <v>914590.3185506258</v>
+        <v>1002194.094719636</v>
       </c>
       <c r="AE6" t="n">
-        <v>1251382.82271814</v>
+        <v>1371246.174078421</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.093705907446843e-06</v>
+        <v>2.220601120878491e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.3443287037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1131952.602444743</v>
+        <v>1240376.363780468</v>
       </c>
     </row>
     <row r="7">
@@ -10820,28 +10820,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>877.5575663151153</v>
+        <v>965.1613424841257</v>
       </c>
       <c r="AB7" t="n">
-        <v>1200.712977339792</v>
+        <v>1320.576328700072</v>
       </c>
       <c r="AC7" t="n">
-        <v>1086.118615993729</v>
+        <v>1194.542377329455</v>
       </c>
       <c r="AD7" t="n">
-        <v>877557.5663151153</v>
+        <v>965161.3424841258</v>
       </c>
       <c r="AE7" t="n">
-        <v>1200712.977339792</v>
+        <v>1320576.328700072</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.105305291341708e-06</v>
+        <v>2.244151880459342e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.18229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1086118.615993729</v>
+        <v>1194542.377329455</v>
       </c>
     </row>
     <row r="8">
@@ -10926,28 +10926,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>873.2512437776321</v>
+        <v>950.0539056095856</v>
       </c>
       <c r="AB8" t="n">
-        <v>1194.820876862465</v>
+        <v>1299.90566707525</v>
       </c>
       <c r="AC8" t="n">
-        <v>1080.788849316344</v>
+        <v>1175.84449463865</v>
       </c>
       <c r="AD8" t="n">
-        <v>873251.2437776321</v>
+        <v>950053.9056095856</v>
       </c>
       <c r="AE8" t="n">
-        <v>1194820.876862465</v>
+        <v>1299905.66707525</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.10733518352331e-06</v>
+        <v>2.248273263385991e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.15625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1080788.849316344</v>
+        <v>1175844.49463865</v>
       </c>
     </row>
     <row r="9">
@@ -11032,28 +11032,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>877.1402345771836</v>
+        <v>953.9428964091371</v>
       </c>
       <c r="AB9" t="n">
-        <v>1200.141965644577</v>
+        <v>1305.226755857362</v>
       </c>
       <c r="AC9" t="n">
-        <v>1085.602100853286</v>
+        <v>1180.657746175592</v>
       </c>
       <c r="AD9" t="n">
-        <v>877140.2345771836</v>
+        <v>953942.8964091372</v>
       </c>
       <c r="AE9" t="n">
-        <v>1200141.965644577</v>
+        <v>1305226.755857362</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.10733518352331e-06</v>
+        <v>2.248273263385991e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.15625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1085602.100853286</v>
+        <v>1180657.746175592</v>
       </c>
     </row>
   </sheetData>
@@ -11329,28 +11329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>891.9272835036213</v>
+        <v>982.1750859759707</v>
       </c>
       <c r="AB2" t="n">
-        <v>1220.374258344287</v>
+        <v>1343.855283139003</v>
       </c>
       <c r="AC2" t="n">
-        <v>1103.903451933936</v>
+        <v>1215.599621028952</v>
       </c>
       <c r="AD2" t="n">
-        <v>891927.2835036214</v>
+        <v>982175.0859759706</v>
       </c>
       <c r="AE2" t="n">
-        <v>1220374.258344287</v>
+        <v>1343855.283139003</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.044492803738086e-06</v>
+        <v>2.32588145936939e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.44212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1103903.451933936</v>
+        <v>1215599.621028952</v>
       </c>
     </row>
     <row r="3">
@@ -11435,28 +11435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>710.020477230908</v>
+        <v>790.392383606856</v>
       </c>
       <c r="AB3" t="n">
-        <v>971.4813408400553</v>
+        <v>1081.449728901889</v>
       </c>
       <c r="AC3" t="n">
-        <v>878.7645251529049</v>
+        <v>978.2376845997196</v>
       </c>
       <c r="AD3" t="n">
-        <v>710020.477230908</v>
+        <v>790392.383606856</v>
       </c>
       <c r="AE3" t="n">
-        <v>971481.3408400553</v>
+        <v>1081449.728901889</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.162107642328884e-06</v>
+        <v>2.58778673190553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.67708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>878764.5251529049</v>
+        <v>978237.6845997196</v>
       </c>
     </row>
     <row r="4">
@@ -11541,28 +11541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>692.1940992216387</v>
+        <v>772.5660055975867</v>
       </c>
       <c r="AB4" t="n">
-        <v>947.0905040034796</v>
+        <v>1057.058892065314</v>
       </c>
       <c r="AC4" t="n">
-        <v>856.7015155512577</v>
+        <v>956.1746749980721</v>
       </c>
       <c r="AD4" t="n">
-        <v>692194.0992216386</v>
+        <v>772566.0055975867</v>
       </c>
       <c r="AE4" t="n">
-        <v>947090.5040034796</v>
+        <v>1057058.892065314</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.174448385564321e-06</v>
+        <v>2.61526715664701e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.51215277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>856701.5155512576</v>
+        <v>956174.6749980721</v>
       </c>
     </row>
   </sheetData>
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2738.072401230341</v>
+        <v>2892.476395489035</v>
       </c>
       <c r="AB2" t="n">
-        <v>3746.351454592609</v>
+        <v>3957.613811360839</v>
       </c>
       <c r="AC2" t="n">
-        <v>3388.804929803439</v>
+        <v>3579.904703750281</v>
       </c>
       <c r="AD2" t="n">
-        <v>2738072.401230341</v>
+        <v>2892476.395489035</v>
       </c>
       <c r="AE2" t="n">
-        <v>3746351.454592609</v>
+        <v>3957613.811360839</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.057707763868845e-07</v>
+        <v>1.145369375505765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.71759259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>3388804.929803439</v>
+        <v>3579904.703750281</v>
       </c>
     </row>
     <row r="3">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1735.752714900125</v>
+        <v>1842.647877357002</v>
       </c>
       <c r="AB3" t="n">
-        <v>2374.933440531668</v>
+        <v>2521.192117686905</v>
       </c>
       <c r="AC3" t="n">
-        <v>2148.273126207344</v>
+        <v>2280.573080490228</v>
       </c>
       <c r="AD3" t="n">
-        <v>1735752.714900125</v>
+        <v>1842647.877357002</v>
       </c>
       <c r="AE3" t="n">
-        <v>2374933.440531668</v>
+        <v>2521192.117686905</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.14568134028724e-07</v>
+        <v>1.540155833439402e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.12615740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>2148273.126207344</v>
+        <v>2280573.080490228</v>
       </c>
     </row>
     <row r="4">
@@ -12050,28 +12050,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1496.320923291305</v>
+        <v>1603.045404039039</v>
       </c>
       <c r="AB4" t="n">
-        <v>2047.332300267333</v>
+        <v>2193.357443178175</v>
       </c>
       <c r="AC4" t="n">
-        <v>1851.937778978749</v>
+        <v>1984.026487197755</v>
       </c>
       <c r="AD4" t="n">
-        <v>1496320.923291305</v>
+        <v>1603045.404039039</v>
       </c>
       <c r="AE4" t="n">
-        <v>2047332.300267333</v>
+        <v>2193357.443178175</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.94576610938413e-07</v>
+        <v>1.69143295476209e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.41608796296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>1851937.778978749</v>
+        <v>1984026.487197755</v>
       </c>
     </row>
     <row r="5">
@@ -12156,28 +12156,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1386.035117578126</v>
+        <v>1492.844849671881</v>
       </c>
       <c r="AB5" t="n">
-        <v>1896.434395424202</v>
+        <v>2042.576182987693</v>
       </c>
       <c r="AC5" t="n">
-        <v>1715.441358387306</v>
+        <v>1847.635578857025</v>
       </c>
       <c r="AD5" t="n">
-        <v>1386035.117578126</v>
+        <v>1492844.849671881</v>
       </c>
       <c r="AE5" t="n">
-        <v>1896434.395424202</v>
+        <v>2042576.182987693</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.362499360582643e-07</v>
+        <v>1.770227363849412e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1715441.358387306</v>
+        <v>1847635.578857025</v>
       </c>
     </row>
     <row r="6">
@@ -12262,28 +12262,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1321.485161462213</v>
+        <v>1416.417752736927</v>
       </c>
       <c r="AB6" t="n">
-        <v>1808.114297723329</v>
+        <v>1938.005257235736</v>
       </c>
       <c r="AC6" t="n">
-        <v>1635.550406852969</v>
+        <v>1753.044755492619</v>
       </c>
       <c r="AD6" t="n">
-        <v>1321485.161462212</v>
+        <v>1416417.752736927</v>
       </c>
       <c r="AE6" t="n">
-        <v>1808114.297723329</v>
+        <v>1938005.257235736</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.637629452782181e-07</v>
+        <v>1.822247962096986e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.16319444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>1635550.406852969</v>
+        <v>1753044.755492619</v>
       </c>
     </row>
     <row r="7">
@@ -12368,28 +12368,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1266.217401925582</v>
+        <v>1372.941793164765</v>
       </c>
       <c r="AB7" t="n">
-        <v>1732.494510883843</v>
+        <v>1878.519531325136</v>
       </c>
       <c r="AC7" t="n">
-        <v>1567.147666336406</v>
+        <v>1699.236263774186</v>
       </c>
       <c r="AD7" t="n">
-        <v>1266217.401925582</v>
+        <v>1372941.793164765</v>
       </c>
       <c r="AE7" t="n">
-        <v>1732494.510883843</v>
+        <v>1878519.531325136</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.816383250453894e-07</v>
+        <v>1.856046080723589e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.87094907407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>1567147.666336406</v>
+        <v>1699236.263774185</v>
       </c>
     </row>
     <row r="8">
@@ -12474,28 +12474,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1232.812747763512</v>
+        <v>1327.830590384247</v>
       </c>
       <c r="AB8" t="n">
-        <v>1686.788789349966</v>
+        <v>1816.796393515023</v>
       </c>
       <c r="AC8" t="n">
-        <v>1525.80403471734</v>
+        <v>1643.403895607702</v>
       </c>
       <c r="AD8" t="n">
-        <v>1232812.747763512</v>
+        <v>1327830.590384247</v>
       </c>
       <c r="AE8" t="n">
-        <v>1686788.789349966</v>
+        <v>1816796.393515023</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.945602863228628e-07</v>
+        <v>1.880478455634386e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.66550925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>1525804.03471734</v>
+        <v>1643403.895607702</v>
       </c>
     </row>
     <row r="9">
@@ -12580,28 +12580,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1206.366987111072</v>
+        <v>1301.384829731806</v>
       </c>
       <c r="AB9" t="n">
-        <v>1650.604532920679</v>
+        <v>1780.612137085736</v>
       </c>
       <c r="AC9" t="n">
-        <v>1493.073152936741</v>
+        <v>1610.673013827103</v>
       </c>
       <c r="AD9" t="n">
-        <v>1206366.987111072</v>
+        <v>1301384.829731806</v>
       </c>
       <c r="AE9" t="n">
-        <v>1650604.532920679</v>
+        <v>1780612.137085736</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.003282610185157e-06</v>
+        <v>1.896970308699175e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.52662037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>1493073.152936741</v>
+        <v>1610673.013827103</v>
       </c>
     </row>
     <row r="10">
@@ -12686,28 +12686,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1179.251247464776</v>
+        <v>1274.098497884918</v>
       </c>
       <c r="AB10" t="n">
-        <v>1613.503581674611</v>
+        <v>1743.277774064821</v>
       </c>
       <c r="AC10" t="n">
-        <v>1459.513064406086</v>
+        <v>1576.901790013797</v>
       </c>
       <c r="AD10" t="n">
-        <v>1179251.247464776</v>
+        <v>1274098.497884918</v>
       </c>
       <c r="AE10" t="n">
-        <v>1613503.581674611</v>
+        <v>1743277.774064821</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.012112617058098e-06</v>
+        <v>1.91366576488822e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.39351851851852</v>
       </c>
       <c r="AH10" t="n">
-        <v>1459513.064406086</v>
+        <v>1576901.790013797</v>
       </c>
     </row>
     <row r="11">
@@ -12792,28 +12792,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1154.014947666614</v>
+        <v>1248.862198086757</v>
       </c>
       <c r="AB11" t="n">
-        <v>1578.974162943797</v>
+        <v>1708.748355334006</v>
       </c>
       <c r="AC11" t="n">
-        <v>1428.279084936596</v>
+        <v>1545.667810544307</v>
       </c>
       <c r="AD11" t="n">
-        <v>1154014.947666614</v>
+        <v>1248862.198086757</v>
       </c>
       <c r="AE11" t="n">
-        <v>1578974.162943796</v>
+        <v>1708748.355334006</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.017981341138283e-06</v>
+        <v>1.924762135160207e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.30381944444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>1428279.084936596</v>
+        <v>1545667.810544307</v>
       </c>
     </row>
     <row r="12">
@@ -12898,28 +12898,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1133.434830452451</v>
+        <v>1228.282080872593</v>
       </c>
       <c r="AB12" t="n">
-        <v>1550.815538640685</v>
+        <v>1680.589731030895</v>
       </c>
       <c r="AC12" t="n">
-        <v>1402.807880216096</v>
+        <v>1520.196605823808</v>
       </c>
       <c r="AD12" t="n">
-        <v>1133434.830452451</v>
+        <v>1228282.080872593</v>
       </c>
       <c r="AE12" t="n">
-        <v>1550815.538640685</v>
+        <v>1680589.731030895</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.023796223713146e-06</v>
+        <v>1.935756703870066e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.21701388888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>1402807.880216097</v>
+        <v>1520196.605823808</v>
       </c>
     </row>
     <row r="13">
@@ -13004,28 +13004,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1112.857073087556</v>
+        <v>1195.99777488925</v>
       </c>
       <c r="AB13" t="n">
-        <v>1522.660143187453</v>
+        <v>1636.416919301426</v>
       </c>
       <c r="AC13" t="n">
-        <v>1377.339596188575</v>
+        <v>1480.239585248868</v>
       </c>
       <c r="AD13" t="n">
-        <v>1112857.073087556</v>
+        <v>1195997.774889251</v>
       </c>
       <c r="AE13" t="n">
-        <v>1522660.143187453</v>
+        <v>1636416.919301426</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.027942019623002e-06</v>
+        <v>1.943595424153947e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.15625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1377339.596188575</v>
+        <v>1480239.585248868</v>
       </c>
     </row>
     <row r="14">
@@ -13110,28 +13110,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1093.598767409431</v>
+        <v>1176.739469211125</v>
       </c>
       <c r="AB14" t="n">
-        <v>1496.310079742158</v>
+        <v>1610.066855856131</v>
       </c>
       <c r="AC14" t="n">
-        <v>1353.504345815952</v>
+        <v>1456.404334876246</v>
       </c>
       <c r="AD14" t="n">
-        <v>1093598.767409431</v>
+        <v>1176739.469211125</v>
       </c>
       <c r="AE14" t="n">
-        <v>1496310.079742158</v>
+        <v>1610066.855856131</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.031441717468985e-06</v>
+        <v>1.950212525692288e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1353504.345815952</v>
+        <v>1456404.334876246</v>
       </c>
     </row>
     <row r="15">
@@ -13216,28 +13216,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1083.317084815734</v>
+        <v>1166.457786617428</v>
       </c>
       <c r="AB15" t="n">
-        <v>1482.242228021639</v>
+        <v>1595.999004135613</v>
       </c>
       <c r="AC15" t="n">
-        <v>1340.779110119287</v>
+        <v>1443.67909917958</v>
       </c>
       <c r="AD15" t="n">
-        <v>1083317.084815734</v>
+        <v>1166457.786617428</v>
       </c>
       <c r="AE15" t="n">
-        <v>1482242.228021639</v>
+        <v>1595999.004135613</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.033541536176574e-06</v>
+        <v>1.954182786615293e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.07233796296296</v>
       </c>
       <c r="AH15" t="n">
-        <v>1340779.110119286</v>
+        <v>1443679.09917958</v>
       </c>
     </row>
     <row r="16">
@@ -13322,28 +13322,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1078.642046532109</v>
+        <v>1161.782748333803</v>
       </c>
       <c r="AB16" t="n">
-        <v>1475.845634393851</v>
+        <v>1589.602410507824</v>
       </c>
       <c r="AC16" t="n">
-        <v>1334.992998409659</v>
+        <v>1437.892987469952</v>
       </c>
       <c r="AD16" t="n">
-        <v>1078642.046532109</v>
+        <v>1161782.748333803</v>
       </c>
       <c r="AE16" t="n">
-        <v>1475845.634393851</v>
+        <v>1589602.410507824</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.034403000261739e-06</v>
+        <v>1.955811611609346e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.06076388888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>1334992.998409659</v>
+        <v>1437892.987469952</v>
       </c>
     </row>
     <row r="17">
@@ -13428,28 +13428,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1083.266314923068</v>
+        <v>1166.407016724762</v>
       </c>
       <c r="AB17" t="n">
-        <v>1482.172762414684</v>
+        <v>1595.929538528657</v>
       </c>
       <c r="AC17" t="n">
-        <v>1340.716274212363</v>
+        <v>1443.616263272657</v>
       </c>
       <c r="AD17" t="n">
-        <v>1083266.314923068</v>
+        <v>1166407.016724762</v>
       </c>
       <c r="AE17" t="n">
-        <v>1482172.762414684</v>
+        <v>1595929.538528657</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.034456841767062e-06</v>
+        <v>1.955913413171474e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.06076388888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>1340716.274212363</v>
+        <v>1443616.263272657</v>
       </c>
     </row>
   </sheetData>
@@ -13725,28 +13725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>747.9529439049821</v>
+        <v>836.0639039135996</v>
       </c>
       <c r="AB2" t="n">
-        <v>1023.382215205846</v>
+        <v>1143.939517870848</v>
       </c>
       <c r="AC2" t="n">
-        <v>925.7120529125594</v>
+        <v>1034.763535814451</v>
       </c>
       <c r="AD2" t="n">
-        <v>747952.9439049822</v>
+        <v>836063.9039135996</v>
       </c>
       <c r="AE2" t="n">
-        <v>1023382.215205846</v>
+        <v>1143939.517870848</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.109960132644578e-06</v>
+        <v>2.544657691911222e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>925712.0529125595</v>
+        <v>1034763.535814451</v>
       </c>
     </row>
     <row r="3">
@@ -13831,28 +13831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>643.5755557615051</v>
+        <v>721.9722676398952</v>
       </c>
       <c r="AB3" t="n">
-        <v>880.5684679425668</v>
+        <v>987.8343077534109</v>
       </c>
       <c r="AC3" t="n">
-        <v>796.5282492477344</v>
+        <v>893.5567878555835</v>
       </c>
       <c r="AD3" t="n">
-        <v>643575.5557615052</v>
+        <v>721972.2676398952</v>
       </c>
       <c r="AE3" t="n">
-        <v>880568.4679425668</v>
+        <v>987834.3077534109</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.185864755671126e-06</v>
+        <v>2.718674106695352e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.72337962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>796528.2492477344</v>
+        <v>893556.7878555835</v>
       </c>
     </row>
     <row r="4">
@@ -13937,28 +13937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>649.1306397711271</v>
+        <v>727.5273516495173</v>
       </c>
       <c r="AB4" t="n">
-        <v>888.1691789575417</v>
+        <v>995.4350187683859</v>
       </c>
       <c r="AC4" t="n">
-        <v>803.403559071105</v>
+        <v>900.4320976789541</v>
       </c>
       <c r="AD4" t="n">
-        <v>649130.6397711271</v>
+        <v>727527.3516495173</v>
       </c>
       <c r="AE4" t="n">
-        <v>888169.1789575417</v>
+        <v>995435.018768386</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.186895718292878e-06</v>
+        <v>2.721037657320604e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.70891203703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>803403.559071105</v>
+        <v>900432.097678954</v>
       </c>
     </row>
   </sheetData>
@@ -14234,28 +14234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2011.898621421079</v>
+        <v>2148.556768566391</v>
       </c>
       <c r="AB2" t="n">
-        <v>2752.768452531222</v>
+        <v>2939.750158387389</v>
       </c>
       <c r="AC2" t="n">
-        <v>2490.04809495643</v>
+        <v>2659.184529236157</v>
       </c>
       <c r="AD2" t="n">
-        <v>2011898.621421079</v>
+        <v>2148556.768566391</v>
       </c>
       <c r="AE2" t="n">
-        <v>2752768.452531222</v>
+        <v>2939750.158387389</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.178396255106331e-07</v>
+        <v>1.406955745504464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.56365740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>2490048.09495643</v>
+        <v>2659184.529236157</v>
       </c>
     </row>
     <row r="3">
@@ -14340,28 +14340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1386.546719496763</v>
+        <v>1500.32894445419</v>
       </c>
       <c r="AB3" t="n">
-        <v>1897.134391739565</v>
+        <v>2052.816251643807</v>
       </c>
       <c r="AC3" t="n">
-        <v>1716.074548036782</v>
+        <v>1856.898349732626</v>
       </c>
       <c r="AD3" t="n">
-        <v>1386546.719496763</v>
+        <v>1500328.94445419</v>
       </c>
       <c r="AE3" t="n">
-        <v>1897134.391739564</v>
+        <v>2052816.251643807</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.052481615531783e-07</v>
+        <v>1.774273886174219e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1716074.548036782</v>
+        <v>1856898.349732626</v>
       </c>
     </row>
     <row r="4">
@@ -14446,28 +14446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1230.632718054872</v>
+        <v>1333.104993200213</v>
       </c>
       <c r="AB4" t="n">
-        <v>1683.805976526482</v>
+        <v>1824.013064138058</v>
       </c>
       <c r="AC4" t="n">
-        <v>1523.105897363324</v>
+        <v>1649.931817315135</v>
       </c>
       <c r="AD4" t="n">
-        <v>1230632.718054872</v>
+        <v>1333104.993200213</v>
       </c>
       <c r="AE4" t="n">
-        <v>1683805.976526482</v>
+        <v>1824013.064138058</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.731473712961914e-07</v>
+        <v>1.907355398907915e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.64351851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>1523105.897363324</v>
+        <v>1649931.817315135</v>
       </c>
     </row>
     <row r="5">
@@ -14552,28 +14552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1155.163075752587</v>
+        <v>1246.240149739822</v>
       </c>
       <c r="AB5" t="n">
-        <v>1580.54508244286</v>
+        <v>1705.160753109121</v>
       </c>
       <c r="AC5" t="n">
-        <v>1429.700078083468</v>
+        <v>1542.422604040534</v>
       </c>
       <c r="AD5" t="n">
-        <v>1155163.075752587</v>
+        <v>1246240.149739822</v>
       </c>
       <c r="AE5" t="n">
-        <v>1580545.08244286</v>
+        <v>1705160.753109121</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.009811825032113e-06</v>
+        <v>1.979217221529985e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.03877314814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>1429700.078083468</v>
+        <v>1542422.604040534</v>
       </c>
     </row>
     <row r="6">
@@ -14658,28 +14658,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1093.846503404223</v>
+        <v>1185.008828737479</v>
       </c>
       <c r="AB6" t="n">
-        <v>1496.649043059574</v>
+        <v>1621.381358378484</v>
       </c>
       <c r="AC6" t="n">
-        <v>1353.810958950092</v>
+        <v>1466.638997157869</v>
       </c>
       <c r="AD6" t="n">
-        <v>1093846.503404223</v>
+        <v>1185008.828737479</v>
       </c>
       <c r="AE6" t="n">
-        <v>1496649.043059574</v>
+        <v>1621381.358378484</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.031978426069404e-06</v>
+        <v>2.022663453222106e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.69444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1353810.958950092</v>
+        <v>1466638.997157869</v>
       </c>
     </row>
     <row r="7">
@@ -14764,28 +14764,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1055.328914890407</v>
+        <v>1146.320648023071</v>
       </c>
       <c r="AB7" t="n">
-        <v>1443.947579178893</v>
+        <v>1568.446482722956</v>
       </c>
       <c r="AC7" t="n">
-        <v>1306.139248815215</v>
+        <v>1418.756151740341</v>
       </c>
       <c r="AD7" t="n">
-        <v>1055328.914890407</v>
+        <v>1146320.648023071</v>
       </c>
       <c r="AE7" t="n">
-        <v>1443947.579178893</v>
+        <v>1568446.482722956</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.047092017685738e-06</v>
+        <v>2.05228588392128e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.46875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1306139.248815215</v>
+        <v>1418756.151740341</v>
       </c>
     </row>
     <row r="8">
@@ -14870,28 +14870,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1022.693832802056</v>
+        <v>1113.68556593472</v>
       </c>
       <c r="AB8" t="n">
-        <v>1399.294820107403</v>
+        <v>1523.793723651466</v>
       </c>
       <c r="AC8" t="n">
-        <v>1265.748086398966</v>
+        <v>1378.364989324093</v>
       </c>
       <c r="AD8" t="n">
-        <v>1022693.832802056</v>
+        <v>1113685.56593472</v>
       </c>
       <c r="AE8" t="n">
-        <v>1399294.820107403</v>
+        <v>1523793.723651466</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.058623128326349e-06</v>
+        <v>2.074886701417687e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.30092592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>1265748.086398966</v>
+        <v>1378364.989324093</v>
       </c>
     </row>
     <row r="9">
@@ -14976,28 +14976,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>991.3764325112446</v>
+        <v>1082.368165643908</v>
       </c>
       <c r="AB9" t="n">
-        <v>1356.444971403325</v>
+        <v>1480.943874947388</v>
       </c>
       <c r="AC9" t="n">
-        <v>1226.987767115065</v>
+        <v>1339.604670040191</v>
       </c>
       <c r="AD9" t="n">
-        <v>991376.4325112447</v>
+        <v>1082368.165643908</v>
       </c>
       <c r="AE9" t="n">
-        <v>1356444.971403325</v>
+        <v>1480943.874947388</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.066683710521727e-06</v>
+        <v>2.090685331123913e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.18518518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>1226987.767115065</v>
+        <v>1339604.670040191</v>
       </c>
     </row>
     <row r="10">
@@ -15082,28 +15082,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>969.0300973594345</v>
+        <v>1048.797221534585</v>
       </c>
       <c r="AB10" t="n">
-        <v>1325.869729797889</v>
+        <v>1435.010628171484</v>
       </c>
       <c r="AC10" t="n">
-        <v>1199.330583655831</v>
+        <v>1298.055227868863</v>
       </c>
       <c r="AD10" t="n">
-        <v>969030.0973594346</v>
+        <v>1048797.221534585</v>
       </c>
       <c r="AE10" t="n">
-        <v>1325869.729797889</v>
+        <v>1435010.628171484</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.071497669332856e-06</v>
+        <v>2.100120623865131e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.11574074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>1199330.583655831</v>
+        <v>1298055.227868863</v>
       </c>
     </row>
     <row r="11">
@@ -15188,28 +15188,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>964.5588997151985</v>
+        <v>1044.326023890349</v>
       </c>
       <c r="AB11" t="n">
-        <v>1319.752039925727</v>
+        <v>1428.892938299321</v>
       </c>
       <c r="AC11" t="n">
-        <v>1193.796757518836</v>
+        <v>1292.521401731868</v>
       </c>
       <c r="AD11" t="n">
-        <v>964558.8997151986</v>
+        <v>1044326.023890349</v>
       </c>
       <c r="AE11" t="n">
-        <v>1319752.039925727</v>
+        <v>1428892.938299321</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.073232933555472e-06</v>
+        <v>2.103521717760222e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.09259259259259</v>
       </c>
       <c r="AH11" t="n">
-        <v>1193796.757518836</v>
+        <v>1292521.401731868</v>
       </c>
     </row>
     <row r="12">
@@ -15294,28 +15294,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>969.0461659395769</v>
+        <v>1048.813290114727</v>
       </c>
       <c r="AB12" t="n">
-        <v>1325.891715538136</v>
+        <v>1435.032613911731</v>
       </c>
       <c r="AC12" t="n">
-        <v>1199.350471107886</v>
+        <v>1298.075115320918</v>
       </c>
       <c r="AD12" t="n">
-        <v>969046.1659395769</v>
+        <v>1048813.290114727</v>
       </c>
       <c r="AE12" t="n">
-        <v>1325891.715538136</v>
+        <v>1435032.61391173</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.073065004759735e-06</v>
+        <v>2.103192579641342e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.09259259259259</v>
       </c>
       <c r="AH12" t="n">
-        <v>1199350.471107886</v>
+        <v>1298075.115320918</v>
       </c>
     </row>
   </sheetData>
@@ -15591,28 +15591,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2359.406487013474</v>
+        <v>2499.071762859509</v>
       </c>
       <c r="AB2" t="n">
-        <v>3228.244045199948</v>
+        <v>3419.340237209611</v>
       </c>
       <c r="AC2" t="n">
-        <v>2920.144964394918</v>
+        <v>3093.00320404436</v>
       </c>
       <c r="AD2" t="n">
-        <v>2359406.487013475</v>
+        <v>2499071.762859509</v>
       </c>
       <c r="AE2" t="n">
-        <v>3228244.045199948</v>
+        <v>3419340.237209611</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.593536568913549e-07</v>
+        <v>1.267741307730455e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.06828703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>2920144.964394918</v>
+        <v>3093003.20404436</v>
       </c>
     </row>
     <row r="3">
@@ -15697,28 +15697,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1556.904042489839</v>
+        <v>1673.106882094721</v>
       </c>
       <c r="AB3" t="n">
-        <v>2130.224796693354</v>
+        <v>2289.218648348226</v>
       </c>
       <c r="AC3" t="n">
-        <v>1926.91913188622</v>
+        <v>2070.738833488424</v>
       </c>
       <c r="AD3" t="n">
-        <v>1556904.042489839</v>
+        <v>1673106.882094721</v>
       </c>
       <c r="AE3" t="n">
-        <v>2130224.796693354</v>
+        <v>2289218.648348227</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.584431407139817e-07</v>
+        <v>1.650531271718273e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.48668981481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>1926919.13188622</v>
+        <v>2070738.833488423</v>
       </c>
     </row>
     <row r="4">
@@ -15803,28 +15803,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1367.496515905871</v>
+        <v>1460.663623542459</v>
       </c>
       <c r="AB4" t="n">
-        <v>1871.069062750839</v>
+        <v>1998.544409661921</v>
       </c>
       <c r="AC4" t="n">
-        <v>1692.496857463821</v>
+        <v>1807.806136178483</v>
       </c>
       <c r="AD4" t="n">
-        <v>1367496.515905871</v>
+        <v>1460663.623542459</v>
       </c>
       <c r="AE4" t="n">
-        <v>1871069.062750839</v>
+        <v>1998544.409661921</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.329234489870195e-07</v>
+        <v>1.793734789926388e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.01099537037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1692496.857463821</v>
+        <v>1807806.136178483</v>
       </c>
     </row>
     <row r="5">
@@ -15909,28 +15909,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1268.884790954953</v>
+        <v>1361.966557736969</v>
       </c>
       <c r="AB5" t="n">
-        <v>1736.144150230726</v>
+        <v>1863.502730019611</v>
       </c>
       <c r="AC5" t="n">
-        <v>1570.448989226325</v>
+        <v>1685.652644909047</v>
       </c>
       <c r="AD5" t="n">
-        <v>1268884.790954953</v>
+        <v>1361966.557736969</v>
       </c>
       <c r="AE5" t="n">
-        <v>1736144.150230726</v>
+        <v>1863502.730019611</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.724671178123951e-07</v>
+        <v>1.869765523820387e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.31944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>1570448.989226324</v>
+        <v>1685652.644909047</v>
       </c>
     </row>
     <row r="6">
@@ -16015,28 +16015,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1204.239215169975</v>
+        <v>1308.881428854873</v>
       </c>
       <c r="AB6" t="n">
-        <v>1647.693221480198</v>
+        <v>1790.869314732528</v>
       </c>
       <c r="AC6" t="n">
-        <v>1490.439692974088</v>
+        <v>1619.951260835324</v>
       </c>
       <c r="AD6" t="n">
-        <v>1204239.215169975</v>
+        <v>1308881.428854873</v>
       </c>
       <c r="AE6" t="n">
-        <v>1647693.221480198</v>
+        <v>1790869.314732528</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.963249485184125e-07</v>
+        <v>1.915637048430498e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.92881944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1490439.692974088</v>
+        <v>1619951.260835324</v>
       </c>
     </row>
     <row r="7">
@@ -16121,28 +16121,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1163.042070894059</v>
+        <v>1256.209089022095</v>
       </c>
       <c r="AB7" t="n">
-        <v>1591.325471192156</v>
+        <v>1718.800695633689</v>
       </c>
       <c r="AC7" t="n">
-        <v>1439.451601660902</v>
+        <v>1554.760769594337</v>
       </c>
       <c r="AD7" t="n">
-        <v>1163042.070894059</v>
+        <v>1256209.089022096</v>
       </c>
       <c r="AE7" t="n">
-        <v>1591325.471192156</v>
+        <v>1718800.695633689</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.01294316163088e-06</v>
+        <v>1.947588937986506e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.66550925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>1439451.601660902</v>
+        <v>1554760.769594337</v>
       </c>
     </row>
     <row r="8">
@@ -16227,28 +16227,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1129.019397037442</v>
+        <v>1222.015822964887</v>
       </c>
       <c r="AB8" t="n">
-        <v>1544.774147847096</v>
+        <v>1672.015960513782</v>
       </c>
       <c r="AC8" t="n">
-        <v>1397.343071280702</v>
+        <v>1512.441103931486</v>
       </c>
       <c r="AD8" t="n">
-        <v>1129019.397037442</v>
+        <v>1222015.822964887</v>
       </c>
       <c r="AE8" t="n">
-        <v>1544774.147847096</v>
+        <v>1672015.960513782</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.025667338007422e-06</v>
+        <v>1.972053751111898e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.47164351851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>1397343.071280702</v>
+        <v>1512441.103931486</v>
       </c>
     </row>
     <row r="9">
@@ -16333,28 +16333,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1101.761258695262</v>
+        <v>1194.757684622706</v>
       </c>
       <c r="AB9" t="n">
-        <v>1507.478360423132</v>
+        <v>1634.720173089819</v>
       </c>
       <c r="AC9" t="n">
-        <v>1363.606741463515</v>
+        <v>1478.704774114299</v>
       </c>
       <c r="AD9" t="n">
-        <v>1101761.258695262</v>
+        <v>1194757.684622706</v>
       </c>
       <c r="AE9" t="n">
-        <v>1507478.360423133</v>
+        <v>1634720.173089819</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.03411355853323e-06</v>
+        <v>1.988293325341684e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.34722222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1363606.741463515</v>
+        <v>1478704.774114299</v>
       </c>
     </row>
     <row r="10">
@@ -16439,28 +16439,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1073.284697750965</v>
+        <v>1166.28112367841</v>
       </c>
       <c r="AB10" t="n">
-        <v>1468.515473441942</v>
+        <v>1595.757286108628</v>
       </c>
       <c r="AC10" t="n">
-        <v>1328.362417731054</v>
+        <v>1443.460450381838</v>
       </c>
       <c r="AD10" t="n">
-        <v>1073284.697750965</v>
+        <v>1166281.12367841</v>
       </c>
       <c r="AE10" t="n">
-        <v>1468515.473441942</v>
+        <v>1595757.286108628</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.041298330538951e-06</v>
+        <v>2.002107508615074e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.24016203703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>1328362.417731054</v>
+        <v>1443460.450381838</v>
       </c>
     </row>
     <row r="11">
@@ -16545,28 +16545,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1050.573175289347</v>
+        <v>1132.09440565993</v>
       </c>
       <c r="AB11" t="n">
-        <v>1437.440566448299</v>
+        <v>1548.981510304189</v>
       </c>
       <c r="AC11" t="n">
-        <v>1300.253256246979</v>
+        <v>1401.148888969961</v>
       </c>
       <c r="AD11" t="n">
-        <v>1050573.175289347</v>
+        <v>1132094.40565993</v>
       </c>
       <c r="AE11" t="n">
-        <v>1437440.566448299</v>
+        <v>1548981.51030419</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.047221654024582e-06</v>
+        <v>2.013496300932067e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.15335648148148</v>
       </c>
       <c r="AH11" t="n">
-        <v>1300253.256246979</v>
+        <v>1401148.888969961</v>
       </c>
     </row>
     <row r="12">
@@ -16651,28 +16651,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1029.635061677985</v>
+        <v>1111.156292048568</v>
       </c>
       <c r="AB12" t="n">
-        <v>1408.792115680855</v>
+        <v>1520.333059536745</v>
       </c>
       <c r="AC12" t="n">
-        <v>1274.338973412426</v>
+        <v>1375.234606135408</v>
       </c>
       <c r="AD12" t="n">
-        <v>1029635.061677985</v>
+        <v>1111156.292048568</v>
       </c>
       <c r="AE12" t="n">
-        <v>1408792.115680855</v>
+        <v>1520333.059536745</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.050293006943058e-06</v>
+        <v>2.019401600651989e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.1099537037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>1274338.973412426</v>
+        <v>1375234.606135408</v>
       </c>
     </row>
     <row r="13">
@@ -16757,28 +16757,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1025.051407493829</v>
+        <v>1106.572637864412</v>
       </c>
       <c r="AB13" t="n">
-        <v>1402.520557809542</v>
+        <v>1514.061501665431</v>
       </c>
       <c r="AC13" t="n">
-        <v>1268.665964222164</v>
+        <v>1369.561596945146</v>
       </c>
       <c r="AD13" t="n">
-        <v>1025051.407493829</v>
+        <v>1106572.637864412</v>
       </c>
       <c r="AE13" t="n">
-        <v>1402520.557809542</v>
+        <v>1514061.501665432</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.052431984868425e-06</v>
+        <v>2.023514220099792e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.078125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1268665.964222164</v>
+        <v>1369561.596945146</v>
       </c>
     </row>
     <row r="14">
@@ -16863,28 +16863,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1028.173168507896</v>
+        <v>1109.694398878479</v>
       </c>
       <c r="AB14" t="n">
-        <v>1406.791888951364</v>
+        <v>1518.332832807254</v>
       </c>
       <c r="AC14" t="n">
-        <v>1272.529645514662</v>
+        <v>1373.425278237643</v>
       </c>
       <c r="AD14" t="n">
-        <v>1028173.168507896</v>
+        <v>1109694.398878479</v>
       </c>
       <c r="AE14" t="n">
-        <v>1406791.888951364</v>
+        <v>1518332.832807254</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.051938374577956e-06</v>
+        <v>2.022565154073376e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.08680555555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>1272529.645514662</v>
+        <v>1373425.278237643</v>
       </c>
     </row>
     <row r="15">
@@ -16969,28 +16969,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1031.061400709897</v>
+        <v>1112.58263108048</v>
       </c>
       <c r="AB15" t="n">
-        <v>1410.743695669954</v>
+        <v>1522.284639525844</v>
       </c>
       <c r="AC15" t="n">
-        <v>1276.104297346425</v>
+        <v>1376.999930069407</v>
       </c>
       <c r="AD15" t="n">
-        <v>1031061.400709897</v>
+        <v>1112582.63108048</v>
       </c>
       <c r="AE15" t="n">
-        <v>1410743.695669954</v>
+        <v>1522284.639525844</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.052048065753616e-06</v>
+        <v>2.022776057634801e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.08391203703704</v>
       </c>
       <c r="AH15" t="n">
-        <v>1276104.297346425</v>
+        <v>1376999.930069407</v>
       </c>
     </row>
   </sheetData>
@@ -17266,28 +17266,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3171.511045700816</v>
+        <v>3340.640429651398</v>
       </c>
       <c r="AB2" t="n">
-        <v>4339.401329920581</v>
+        <v>4570.811614503596</v>
       </c>
       <c r="AC2" t="n">
-        <v>3925.254957380814</v>
+        <v>4134.579769189592</v>
       </c>
       <c r="AD2" t="n">
-        <v>3171511.045700816</v>
+        <v>3340640.429651398</v>
       </c>
       <c r="AE2" t="n">
-        <v>4339401.329920581</v>
+        <v>4570811.614503596</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.573336625591898e-07</v>
+        <v>1.038270341582359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.48263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>3925254.957380814</v>
+        <v>4134579.769189592</v>
       </c>
     </row>
     <row r="3">
@@ -17372,28 +17372,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1906.44927175145</v>
+        <v>2027.377826145145</v>
       </c>
       <c r="AB3" t="n">
-        <v>2608.488000216256</v>
+        <v>2773.947783329006</v>
       </c>
       <c r="AC3" t="n">
-        <v>2359.537566511518</v>
+        <v>2509.20610014825</v>
       </c>
       <c r="AD3" t="n">
-        <v>1906449.27175145</v>
+        <v>2027377.826145145</v>
       </c>
       <c r="AE3" t="n">
-        <v>2608488.000216256</v>
+        <v>2773947.783329006</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.747509642433267e-07</v>
+        <v>1.443302284295007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.77141203703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>2359537.566511518</v>
+        <v>2509206.10014825</v>
       </c>
     </row>
     <row r="4">
@@ -17478,28 +17478,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1626.525399578501</v>
+        <v>1747.283272263053</v>
       </c>
       <c r="AB4" t="n">
-        <v>2225.483808939563</v>
+        <v>2390.710057807917</v>
       </c>
       <c r="AC4" t="n">
-        <v>2013.086757700514</v>
+        <v>2162.544045273369</v>
       </c>
       <c r="AD4" t="n">
-        <v>1626525.399578501</v>
+        <v>1747283.272263053</v>
       </c>
       <c r="AE4" t="n">
-        <v>2225483.808939563</v>
+        <v>2390710.057807917</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.593991905381732e-07</v>
+        <v>1.600995509617023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.82407407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>2013086.757700514</v>
+        <v>2162544.045273369</v>
       </c>
     </row>
     <row r="5">
@@ -17584,28 +17584,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1499.577925075508</v>
+        <v>1608.328283175262</v>
       </c>
       <c r="AB5" t="n">
-        <v>2051.788673797258</v>
+        <v>2200.585711476534</v>
       </c>
       <c r="AC5" t="n">
-        <v>1855.968842473537</v>
+        <v>1990.564899714657</v>
       </c>
       <c r="AD5" t="n">
-        <v>1499577.925075508</v>
+        <v>1608328.283175262</v>
       </c>
       <c r="AE5" t="n">
-        <v>2051788.673797258</v>
+        <v>2200585.711476535</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.040261165960568e-07</v>
+        <v>1.684132088070094e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.94444444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>1855968.842473537</v>
+        <v>1990564.899714657</v>
       </c>
     </row>
     <row r="6">
@@ -17690,28 +17690,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1428.538729685493</v>
+        <v>1525.196321854428</v>
       </c>
       <c r="AB6" t="n">
-        <v>1954.589712636527</v>
+        <v>2086.840894474078</v>
       </c>
       <c r="AC6" t="n">
-        <v>1768.046413746388</v>
+        <v>1887.675728405062</v>
       </c>
       <c r="AD6" t="n">
-        <v>1428538.729685493</v>
+        <v>1525196.321854428</v>
       </c>
       <c r="AE6" t="n">
-        <v>1954589.712636527</v>
+        <v>2086840.894474078</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.328774507615922e-07</v>
+        <v>1.737879935349956e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.42071759259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>1768046.413746388</v>
+        <v>1887675.728405062</v>
       </c>
     </row>
     <row r="7">
@@ -17796,28 +17796,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1381.669800746373</v>
+        <v>1478.327392915309</v>
       </c>
       <c r="AB7" t="n">
-        <v>1890.46157635081</v>
+        <v>2022.71275818836</v>
       </c>
       <c r="AC7" t="n">
-        <v>1710.038576783375</v>
+        <v>1829.667891442049</v>
       </c>
       <c r="AD7" t="n">
-        <v>1381669.800746373</v>
+        <v>1478327.392915308</v>
       </c>
       <c r="AE7" t="n">
-        <v>1890461.57635081</v>
+        <v>2022712.75818836</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.518822745513671e-07</v>
+        <v>1.773284480622379e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.09085648148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>1710038.576783375</v>
+        <v>1829667.891442049</v>
       </c>
     </row>
     <row r="8">
@@ -17902,28 +17902,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1332.741311927276</v>
+        <v>1441.406329172458</v>
       </c>
       <c r="AB8" t="n">
-        <v>1823.515459375939</v>
+        <v>1972.195729933018</v>
       </c>
       <c r="AC8" t="n">
-        <v>1649.48170325312</v>
+        <v>1783.972137462302</v>
       </c>
       <c r="AD8" t="n">
-        <v>1332741.311927275</v>
+        <v>1441406.329172458</v>
       </c>
       <c r="AE8" t="n">
-        <v>1823515.459375939</v>
+        <v>1972195.729933018</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.663873489758749e-07</v>
+        <v>1.800306334117208e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.85069444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1649481.70325312</v>
+        <v>1783972.137462302</v>
       </c>
     </row>
     <row r="9">
@@ -18008,28 +18008,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1302.465655496626</v>
+        <v>1399.208499011582</v>
       </c>
       <c r="AB9" t="n">
-        <v>1782.090970579829</v>
+        <v>1914.458797070029</v>
       </c>
       <c r="AC9" t="n">
-        <v>1612.010709528076</v>
+        <v>1731.745536437462</v>
       </c>
       <c r="AD9" t="n">
-        <v>1302465.655496626</v>
+        <v>1399208.499011582</v>
       </c>
       <c r="AE9" t="n">
-        <v>1782090.97057983</v>
+        <v>1914458.797070029</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.772396856803426e-07</v>
+        <v>1.820523414286698e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.67418981481482</v>
       </c>
       <c r="AH9" t="n">
-        <v>1612010.709528076</v>
+        <v>1731745.536437462</v>
       </c>
     </row>
     <row r="10">
@@ -18114,28 +18114,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1277.873266537498</v>
+        <v>1374.616110052454</v>
       </c>
       <c r="AB10" t="n">
-        <v>1748.44257906632</v>
+        <v>1880.81040555652</v>
       </c>
       <c r="AC10" t="n">
-        <v>1581.573673274802</v>
+        <v>1701.308500184188</v>
       </c>
       <c r="AD10" t="n">
-        <v>1277873.266537498</v>
+        <v>1374616.110052454</v>
       </c>
       <c r="AE10" t="n">
-        <v>1748442.57906632</v>
+        <v>1880810.40555652</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.851274816265163e-07</v>
+        <v>1.835217779873302e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.54976851851852</v>
       </c>
       <c r="AH10" t="n">
-        <v>1581573.673274802</v>
+        <v>1701308.500184188</v>
       </c>
     </row>
     <row r="11">
@@ -18220,28 +18220,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1255.866101123187</v>
+        <v>1352.438352437552</v>
       </c>
       <c r="AB11" t="n">
-        <v>1718.331404458845</v>
+        <v>1850.465819174197</v>
       </c>
       <c r="AC11" t="n">
-        <v>1554.336266910565</v>
+        <v>1673.8599585373</v>
       </c>
       <c r="AD11" t="n">
-        <v>1255866.101123187</v>
+        <v>1352438.352437552</v>
       </c>
       <c r="AE11" t="n">
-        <v>1718331.404458845</v>
+        <v>1850465.819174197</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.916388836491968e-07</v>
+        <v>1.847348027974996e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.44560185185185</v>
       </c>
       <c r="AH11" t="n">
-        <v>1554336.266910565</v>
+        <v>1673859.9585373</v>
       </c>
     </row>
     <row r="12">
@@ -18326,28 +18326,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1235.184534599632</v>
+        <v>1331.756785913996</v>
       </c>
       <c r="AB12" t="n">
-        <v>1690.033972734996</v>
+        <v>1822.168387450349</v>
       </c>
       <c r="AC12" t="n">
-        <v>1528.739502354746</v>
+        <v>1648.263193981481</v>
       </c>
       <c r="AD12" t="n">
-        <v>1235184.534599632</v>
+        <v>1331756.785913996</v>
       </c>
       <c r="AE12" t="n">
-        <v>1690033.972734996</v>
+        <v>1822168.387450349</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.976738416214372e-07</v>
+        <v>1.858590696947297e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.35300925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>1528739.502354746</v>
+        <v>1648263.193981481</v>
       </c>
     </row>
     <row r="13">
@@ -18432,28 +18432,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1214.845846734609</v>
+        <v>1311.418098048974</v>
       </c>
       <c r="AB13" t="n">
-        <v>1662.20568271849</v>
+        <v>1794.340097433843</v>
       </c>
       <c r="AC13" t="n">
-        <v>1503.567105280165</v>
+        <v>1623.0907969069</v>
       </c>
       <c r="AD13" t="n">
-        <v>1214845.846734609</v>
+        <v>1311418.098048974</v>
       </c>
       <c r="AE13" t="n">
-        <v>1662205.68271849</v>
+        <v>1794340.097433843</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.002597096809318e-06</v>
+        <v>1.867762347951017e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>1503567.105280165</v>
+        <v>1623090.7969069</v>
       </c>
     </row>
     <row r="14">
@@ -18538,28 +18538,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1196.397807610753</v>
+        <v>1292.970058925117</v>
       </c>
       <c r="AB14" t="n">
-        <v>1636.964261719183</v>
+        <v>1769.098676434536</v>
       </c>
       <c r="AC14" t="n">
-        <v>1480.734690074475</v>
+        <v>1600.25838170121</v>
       </c>
       <c r="AD14" t="n">
-        <v>1196397.807610753</v>
+        <v>1292970.058925117</v>
       </c>
       <c r="AE14" t="n">
-        <v>1636964.261719184</v>
+        <v>1769098.676434536</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.006408649212838e-06</v>
+        <v>1.874862980986154e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.21990740740741</v>
       </c>
       <c r="AH14" t="n">
-        <v>1480734.690074475</v>
+        <v>1600258.38170121</v>
       </c>
     </row>
     <row r="15">
@@ -18644,28 +18644,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1177.5186308513</v>
+        <v>1262.168708435438</v>
       </c>
       <c r="AB15" t="n">
-        <v>1611.132939186404</v>
+        <v>1726.954909834877</v>
       </c>
       <c r="AC15" t="n">
-        <v>1457.368672709735</v>
+        <v>1562.136757036674</v>
       </c>
       <c r="AD15" t="n">
-        <v>1177518.6308513</v>
+        <v>1262168.708435438</v>
       </c>
       <c r="AE15" t="n">
-        <v>1611132.939186404</v>
+        <v>1726954.909834877</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.010220201616358e-06</v>
+        <v>1.881963614021292e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.16203703703704</v>
       </c>
       <c r="AH15" t="n">
-        <v>1457368.672709735</v>
+        <v>1562136.757036674</v>
       </c>
     </row>
     <row r="16">
@@ -18750,28 +18750,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1162.558110475605</v>
+        <v>1247.208188059743</v>
       </c>
       <c r="AB16" t="n">
-        <v>1590.663295196801</v>
+        <v>1706.485265845274</v>
       </c>
       <c r="AC16" t="n">
-        <v>1438.852622813174</v>
+        <v>1543.620707140113</v>
       </c>
       <c r="AD16" t="n">
-        <v>1162558.110475605</v>
+        <v>1247208.188059743</v>
       </c>
       <c r="AE16" t="n">
-        <v>1590663.295196801</v>
+        <v>1706485.265845274</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.012549483640732e-06</v>
+        <v>1.886302889764987e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.12731481481482</v>
       </c>
       <c r="AH16" t="n">
-        <v>1438852.622813174</v>
+        <v>1543620.707140113</v>
       </c>
     </row>
     <row r="17">
@@ -18856,28 +18856,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1144.705884742523</v>
+        <v>1229.35596232666</v>
       </c>
       <c r="AB17" t="n">
-        <v>1566.237092364182</v>
+        <v>1682.059063012655</v>
       </c>
       <c r="AC17" t="n">
-        <v>1416.75762249651</v>
+        <v>1521.525706823449</v>
       </c>
       <c r="AD17" t="n">
-        <v>1144705.884742523</v>
+        <v>1229355.96232666</v>
       </c>
       <c r="AE17" t="n">
-        <v>1566237.092364182</v>
+        <v>1682059.063012655</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.014878765665105e-06</v>
+        <v>1.890642165508683e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.09259259259259</v>
       </c>
       <c r="AH17" t="n">
-        <v>1416757.62249651</v>
+        <v>1521525.706823449</v>
       </c>
     </row>
     <row r="18">
@@ -18962,28 +18962,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1139.981263364355</v>
+        <v>1224.631340948492</v>
       </c>
       <c r="AB18" t="n">
-        <v>1559.772656958989</v>
+        <v>1675.594627607461</v>
       </c>
       <c r="AC18" t="n">
-        <v>1410.910143733495</v>
+        <v>1515.678228060435</v>
       </c>
       <c r="AD18" t="n">
-        <v>1139981.263364355</v>
+        <v>1224631.340948492</v>
       </c>
       <c r="AE18" t="n">
-        <v>1559772.656958989</v>
+        <v>1675594.627607461</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.016202221360772e-06</v>
+        <v>1.893107663090328e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.07233796296296</v>
       </c>
       <c r="AH18" t="n">
-        <v>1410910.143733495</v>
+        <v>1515678.228060435</v>
       </c>
     </row>
     <row r="19">
@@ -19068,28 +19068,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1142.303325359392</v>
+        <v>1226.95340294353</v>
       </c>
       <c r="AB19" t="n">
-        <v>1562.949804622745</v>
+        <v>1678.771775271217</v>
       </c>
       <c r="AC19" t="n">
-        <v>1413.784068883377</v>
+        <v>1518.552153210316</v>
       </c>
       <c r="AD19" t="n">
-        <v>1142303.325359392</v>
+        <v>1226953.40294353</v>
       </c>
       <c r="AE19" t="n">
-        <v>1562949.804622744</v>
+        <v>1678771.775271217</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.015990468449465e-06</v>
+        <v>1.892713183477264e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15.07523148148148</v>
       </c>
       <c r="AH19" t="n">
-        <v>1413784.068883377</v>
+        <v>1518552.153210316</v>
       </c>
     </row>
     <row r="20">
@@ -19174,28 +19174,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1145.793263317772</v>
+        <v>1230.44334090191</v>
       </c>
       <c r="AB20" t="n">
-        <v>1567.724891702596</v>
+        <v>1683.546862351069</v>
       </c>
       <c r="AC20" t="n">
-        <v>1418.103428354204</v>
+        <v>1522.871512681143</v>
       </c>
       <c r="AD20" t="n">
-        <v>1145793.263317772</v>
+        <v>1230443.34090191</v>
       </c>
       <c r="AE20" t="n">
-        <v>1567724.891702596</v>
+        <v>1683546.862351069</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.015725777310332e-06</v>
+        <v>1.892220083960936e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15.08101851851852</v>
       </c>
       <c r="AH20" t="n">
-        <v>1418103.428354204</v>
+        <v>1522871.512681144</v>
       </c>
     </row>
   </sheetData>
@@ -19471,28 +19471,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1707.337210337678</v>
+        <v>1829.491936517286</v>
       </c>
       <c r="AB2" t="n">
-        <v>2336.054093585743</v>
+        <v>2503.191579030858</v>
       </c>
       <c r="AC2" t="n">
-        <v>2113.104369566431</v>
+        <v>2264.290487979599</v>
       </c>
       <c r="AD2" t="n">
-        <v>1707337.210337678</v>
+        <v>1829491.936517286</v>
       </c>
       <c r="AE2" t="n">
-        <v>2336054.093585743</v>
+        <v>2503191.579030858</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.828954544699351e-07</v>
+        <v>1.569311867698605e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.16608796296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>2113104.369566431</v>
+        <v>2264290.487979599</v>
       </c>
     </row>
     <row r="3">
@@ -19577,28 +19577,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1231.168693838785</v>
+        <v>1331.082453040175</v>
       </c>
       <c r="AB3" t="n">
-        <v>1684.539322239615</v>
+        <v>1821.245735462919</v>
       </c>
       <c r="AC3" t="n">
-        <v>1523.769253590853</v>
+        <v>1647.428598604781</v>
       </c>
       <c r="AD3" t="n">
-        <v>1231168.693838785</v>
+        <v>1331082.453040175</v>
       </c>
       <c r="AE3" t="n">
-        <v>1684539.322239615</v>
+        <v>1821245.735462919</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.565413226449784e-07</v>
+        <v>1.917384551155969e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.32349537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1523769.253590853</v>
+        <v>1647428.598604781</v>
       </c>
     </row>
     <row r="4">
@@ -19683,28 +19683,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1099.558125981649</v>
+        <v>1188.436742548501</v>
       </c>
       <c r="AB4" t="n">
-        <v>1504.463937049012</v>
+        <v>1626.071581283608</v>
       </c>
       <c r="AC4" t="n">
-        <v>1360.880010425451</v>
+        <v>1470.881591771698</v>
       </c>
       <c r="AD4" t="n">
-        <v>1099558.125981649</v>
+        <v>1188436.742548501</v>
       </c>
       <c r="AE4" t="n">
-        <v>1504463.937049012</v>
+        <v>1626071.581283608</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.019768578075469e-06</v>
+        <v>2.044123417428044e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>1360880.010425451</v>
+        <v>1470881.591771698</v>
       </c>
     </row>
     <row r="5">
@@ -19789,28 +19789,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1024.130044601073</v>
+        <v>1113.093912513946</v>
       </c>
       <c r="AB5" t="n">
-        <v>1401.259908452012</v>
+        <v>1522.984197339257</v>
       </c>
       <c r="AC5" t="n">
-        <v>1267.525629469985</v>
+        <v>1377.632723066944</v>
       </c>
       <c r="AD5" t="n">
-        <v>1024130.044601073</v>
+        <v>1113093.912513946</v>
       </c>
       <c r="AE5" t="n">
-        <v>1401259.908452012</v>
+        <v>1522984.197339257</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.051897645373029e-06</v>
+        <v>2.108526047843474e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.75231481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>1267525.629469984</v>
+        <v>1377632.723066943</v>
       </c>
     </row>
     <row r="6">
@@ -19895,28 +19895,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>976.8735684907866</v>
+        <v>1065.666844203067</v>
       </c>
       <c r="AB6" t="n">
-        <v>1336.60151302933</v>
+        <v>1458.092390141728</v>
       </c>
       <c r="AC6" t="n">
-        <v>1209.038140557815</v>
+        <v>1318.934098872123</v>
       </c>
       <c r="AD6" t="n">
-        <v>976873.5684907866</v>
+        <v>1065666.844203067</v>
       </c>
       <c r="AE6" t="n">
-        <v>1336601.51302933</v>
+        <v>1458092.390141728</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.071885246953863e-06</v>
+        <v>2.148591142344337e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.46006944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1209038.140557815</v>
+        <v>1318934.098872123</v>
       </c>
     </row>
     <row r="7">
@@ -20001,28 +20001,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>937.2006554152732</v>
+        <v>1025.993931127553</v>
       </c>
       <c r="AB7" t="n">
-        <v>1282.319283114014</v>
+        <v>1403.810160226412</v>
       </c>
       <c r="AC7" t="n">
-        <v>1159.936530480029</v>
+        <v>1269.832488794337</v>
       </c>
       <c r="AD7" t="n">
-        <v>937200.6554152733</v>
+        <v>1025993.931127553</v>
       </c>
       <c r="AE7" t="n">
-        <v>1282319.283114014</v>
+        <v>1403810.160226412</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.085916657805738e-06</v>
+        <v>2.17671706828334e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.26041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1159936.530480029</v>
+        <v>1269832.488794337</v>
       </c>
     </row>
     <row r="8">
@@ -20107,28 +20107,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>909.1251053657832</v>
+        <v>986.9685792980977</v>
       </c>
       <c r="AB8" t="n">
-        <v>1243.905076930449</v>
+        <v>1350.413952176337</v>
       </c>
       <c r="AC8" t="n">
-        <v>1125.188522219947</v>
+        <v>1221.532339898513</v>
       </c>
       <c r="AD8" t="n">
-        <v>909125.1053657832</v>
+        <v>986968.5792980976</v>
       </c>
       <c r="AE8" t="n">
-        <v>1243905.07693045</v>
+        <v>1350413.952176338</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.09422096218746e-06</v>
+        <v>2.19336302445132e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.14467592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>1125188.522219947</v>
+        <v>1221532.339898513</v>
       </c>
     </row>
     <row r="9">
@@ -20213,28 +20213,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>903.0728721604871</v>
+        <v>980.9163460928013</v>
       </c>
       <c r="AB9" t="n">
-        <v>1235.624144453279</v>
+        <v>1342.133019699167</v>
       </c>
       <c r="AC9" t="n">
-        <v>1117.697910316036</v>
+        <v>1214.041727994601</v>
       </c>
       <c r="AD9" t="n">
-        <v>903072.8721604871</v>
+        <v>980916.3460928013</v>
       </c>
       <c r="AE9" t="n">
-        <v>1235624.144453279</v>
+        <v>1342133.019699167</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.095767280934401e-06</v>
+        <v>2.196462616289496e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.12152777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1117697.910316036</v>
+        <v>1214041.727994601</v>
       </c>
     </row>
     <row r="10">
@@ -20319,28 +20319,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>908.4552807878758</v>
+        <v>986.2987547201903</v>
       </c>
       <c r="AB10" t="n">
-        <v>1242.988593392382</v>
+        <v>1349.49746863827</v>
       </c>
       <c r="AC10" t="n">
-        <v>1124.35950658446</v>
+        <v>1220.703324263025</v>
       </c>
       <c r="AD10" t="n">
-        <v>908455.2807878759</v>
+        <v>986298.7547201903</v>
       </c>
       <c r="AE10" t="n">
-        <v>1242988.593392382</v>
+        <v>1349497.46863827</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.095423654546192e-06</v>
+        <v>2.195773818103235e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.12731481481482</v>
       </c>
       <c r="AH10" t="n">
-        <v>1124359.50658446</v>
+        <v>1220703.324263026</v>
       </c>
     </row>
   </sheetData>
@@ -20616,28 +20616,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1288.510234773181</v>
+        <v>1394.79213264131</v>
       </c>
       <c r="AB2" t="n">
-        <v>1762.996548276302</v>
+        <v>1908.416129765888</v>
       </c>
       <c r="AC2" t="n">
-        <v>1594.738632090008</v>
+        <v>1726.279572819892</v>
       </c>
       <c r="AD2" t="n">
-        <v>1288510.234773181</v>
+        <v>1394792.13264131</v>
       </c>
       <c r="AE2" t="n">
-        <v>1762996.548276302</v>
+        <v>1908416.129765888</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.96890325625907e-07</v>
+        <v>1.876350650862083e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.24768518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>1594738.632090008</v>
+        <v>1726279.572819892</v>
       </c>
     </row>
     <row r="3">
@@ -20722,28 +20722,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>984.5655446870976</v>
+        <v>1080.287444894374</v>
       </c>
       <c r="AB3" t="n">
-        <v>1347.126014207162</v>
+        <v>1478.096941022955</v>
       </c>
       <c r="AC3" t="n">
-        <v>1218.558198114466</v>
+        <v>1337.029443493809</v>
       </c>
       <c r="AD3" t="n">
-        <v>984565.5446870975</v>
+        <v>1080287.444894374</v>
       </c>
       <c r="AE3" t="n">
-        <v>1347126.014207162</v>
+        <v>1478096.941022954</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.046153302526001e-06</v>
+        <v>2.188618133132731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.50173611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1218558.198114466</v>
+        <v>1337029.443493809</v>
       </c>
     </row>
     <row r="4">
@@ -20828,28 +20828,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>882.3151973732449</v>
+        <v>967.4771894282213</v>
       </c>
       <c r="AB4" t="n">
-        <v>1207.222578045394</v>
+        <v>1323.74497265694</v>
       </c>
       <c r="AC4" t="n">
-        <v>1092.006949544271</v>
+        <v>1197.408610354299</v>
       </c>
       <c r="AD4" t="n">
-        <v>882315.1973732449</v>
+        <v>967477.1894282213</v>
       </c>
       <c r="AE4" t="n">
-        <v>1207222.578045394</v>
+        <v>1323744.97265694</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.099308103652294e-06</v>
+        <v>2.299821301279473e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1092006.949544271</v>
+        <v>1197408.610354299</v>
       </c>
     </row>
     <row r="5">
@@ -20934,28 +20934,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>824.3587464487124</v>
+        <v>909.3501463030964</v>
       </c>
       <c r="AB5" t="n">
-        <v>1127.924005032287</v>
+        <v>1244.212987868987</v>
       </c>
       <c r="AC5" t="n">
-        <v>1020.276521043289</v>
+        <v>1125.467046570666</v>
       </c>
       <c r="AD5" t="n">
-        <v>824358.7464487124</v>
+        <v>909350.1463030964</v>
       </c>
       <c r="AE5" t="n">
-        <v>1127924.005032287</v>
+        <v>1244212.987868987</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.126273277736564e-06</v>
+        <v>2.356234131809582e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.32696759259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>1020276.521043289</v>
+        <v>1125467.046570666</v>
       </c>
     </row>
     <row r="6">
@@ -21040,28 +21040,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>806.2415204802742</v>
+        <v>891.2329203346584</v>
       </c>
       <c r="AB6" t="n">
-        <v>1103.135217186671</v>
+        <v>1219.424200023371</v>
       </c>
       <c r="AC6" t="n">
-        <v>997.8535403183756</v>
+        <v>1103.044065845753</v>
       </c>
       <c r="AD6" t="n">
-        <v>806241.5204802742</v>
+        <v>891232.9203346584</v>
       </c>
       <c r="AE6" t="n">
-        <v>1103135.217186671</v>
+        <v>1219424.200023371</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.133074228722419e-06</v>
+        <v>2.3704621465893e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>997853.5403183756</v>
+        <v>1103044.065845753</v>
       </c>
     </row>
     <row r="7">
@@ -21146,28 +21146,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>809.2255900702199</v>
+        <v>894.2169899246041</v>
       </c>
       <c r="AB7" t="n">
-        <v>1107.218152847494</v>
+        <v>1223.507135684193</v>
       </c>
       <c r="AC7" t="n">
-        <v>1001.546806330166</v>
+        <v>1106.737331857543</v>
       </c>
       <c r="AD7" t="n">
-        <v>809225.5900702199</v>
+        <v>894216.9899246042</v>
       </c>
       <c r="AE7" t="n">
-        <v>1107218.152847494</v>
+        <v>1223507.135684193</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.133611145905513e-06</v>
+        <v>2.371585410914014e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.22858796296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>1001546.806330166</v>
+        <v>1106737.331857543</v>
       </c>
     </row>
   </sheetData>
@@ -39336,28 +39336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1028.382181271636</v>
+        <v>1120.685396751662</v>
       </c>
       <c r="AB2" t="n">
-        <v>1407.077869435706</v>
+        <v>1533.371200985947</v>
       </c>
       <c r="AC2" t="n">
-        <v>1272.788332422955</v>
+        <v>1387.028405663845</v>
       </c>
       <c r="AD2" t="n">
-        <v>1028382.181271636</v>
+        <v>1120685.396751662</v>
       </c>
       <c r="AE2" t="n">
-        <v>1407077.869435706</v>
+        <v>1533371.200985947</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.89936639133988e-07</v>
+        <v>2.151979474774092e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.03819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>1272788.332422955</v>
+        <v>1387028.405663845</v>
       </c>
     </row>
     <row r="3">
@@ -39442,28 +39442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>804.2170106968176</v>
+        <v>896.4347958137205</v>
       </c>
       <c r="AB3" t="n">
-        <v>1100.365193585877</v>
+        <v>1226.541635544373</v>
       </c>
       <c r="AC3" t="n">
-        <v>995.3478838822895</v>
+        <v>1109.482223310014</v>
       </c>
       <c r="AD3" t="n">
-        <v>804217.0106968177</v>
+        <v>896434.7958137204</v>
       </c>
       <c r="AE3" t="n">
-        <v>1100365.193585878</v>
+        <v>1226541.635544373</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.118854888566748e-06</v>
+        <v>2.432229155143338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.96064814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>995347.8838822895</v>
+        <v>1109482.223310014</v>
       </c>
     </row>
     <row r="4">
@@ -39548,28 +39548,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>735.6168123602636</v>
+        <v>817.5693017828231</v>
       </c>
       <c r="AB4" t="n">
-        <v>1006.503375794648</v>
+        <v>1118.634387311259</v>
       </c>
       <c r="AC4" t="n">
-        <v>910.4441062451662</v>
+        <v>1011.873491399495</v>
       </c>
       <c r="AD4" t="n">
-        <v>735616.8123602635</v>
+        <v>817569.3017828232</v>
       </c>
       <c r="AE4" t="n">
-        <v>1006503.375794648</v>
+        <v>1118634.387311259</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.158597996577613e-06</v>
+        <v>2.5186249398048e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.41087962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>910444.1062451662</v>
+        <v>1011873.491399495</v>
       </c>
     </row>
     <row r="5">
@@ -39654,28 +39654,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>735.4259024025848</v>
+        <v>817.3783918251445</v>
       </c>
       <c r="AB5" t="n">
-        <v>1006.242164368199</v>
+        <v>1118.37317588481</v>
       </c>
       <c r="AC5" t="n">
-        <v>910.2078244706451</v>
+        <v>1011.637209624974</v>
       </c>
       <c r="AD5" t="n">
-        <v>735425.9024025848</v>
+        <v>817378.3918251445</v>
       </c>
       <c r="AE5" t="n">
-        <v>1006242.164368199</v>
+        <v>1118373.17588481</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.160943086801857e-06</v>
+        <v>2.523722827719607e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>910207.824470645</v>
+        <v>1011637.209624974</v>
       </c>
     </row>
   </sheetData>
@@ -39951,28 +39951,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>605.9474311798039</v>
+        <v>681.9611985621078</v>
       </c>
       <c r="AB2" t="n">
-        <v>829.0840078541861</v>
+        <v>933.0893978773935</v>
       </c>
       <c r="AC2" t="n">
-        <v>749.9573937712951</v>
+        <v>844.0366553431695</v>
       </c>
       <c r="AD2" t="n">
-        <v>605947.4311798039</v>
+        <v>681961.1985621079</v>
       </c>
       <c r="AE2" t="n">
-        <v>829084.0078541861</v>
+        <v>933089.3978773935</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.182260072210065e-06</v>
+        <v>2.812037459648367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.21238425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>749957.3937712951</v>
+        <v>844036.6553431695</v>
       </c>
     </row>
     <row r="3">
@@ -40057,28 +40057,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>602.0587577579153</v>
+        <v>678.0725251402192</v>
       </c>
       <c r="AB3" t="n">
-        <v>823.7633533221945</v>
+        <v>927.7687433454022</v>
       </c>
       <c r="AC3" t="n">
-        <v>745.1445350402512</v>
+        <v>839.2237966121257</v>
       </c>
       <c r="AD3" t="n">
-        <v>602058.7577579153</v>
+        <v>678072.5251402193</v>
       </c>
       <c r="AE3" t="n">
-        <v>823763.3533221944</v>
+        <v>927768.7433454022</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.191135799123402e-06</v>
+        <v>2.833148615432607e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.09085648148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>745144.5350402512</v>
+        <v>839223.7966121257</v>
       </c>
     </row>
   </sheetData>
@@ -40354,28 +40354,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2180.431381576897</v>
+        <v>2318.53986499015</v>
       </c>
       <c r="AB2" t="n">
-        <v>2983.362410117044</v>
+        <v>3172.328530039511</v>
       </c>
       <c r="AC2" t="n">
-        <v>2698.634488870914</v>
+        <v>2869.565947523477</v>
       </c>
       <c r="AD2" t="n">
-        <v>2180431.381576897</v>
+        <v>2318539.864990151</v>
       </c>
       <c r="AE2" t="n">
-        <v>2983362.410117045</v>
+        <v>3172328.530039512</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.880377517011437e-07</v>
+        <v>1.335191058280061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.2957175925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>2698634.488870914</v>
+        <v>2869565.947523477</v>
       </c>
     </row>
     <row r="3">
@@ -40460,28 +40460,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1477.823081771199</v>
+        <v>1581.447137135561</v>
       </c>
       <c r="AB3" t="n">
-        <v>2022.022737432353</v>
+        <v>2163.80574155255</v>
       </c>
       <c r="AC3" t="n">
-        <v>1829.043725298544</v>
+        <v>1957.295158499206</v>
       </c>
       <c r="AD3" t="n">
-        <v>1477823.081771199</v>
+        <v>1581447.137135561</v>
       </c>
       <c r="AE3" t="n">
-        <v>2022022.737432353</v>
+        <v>2163805.741552549</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.810273279773521e-07</v>
+        <v>1.709702421861716e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.19155092592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>1829043.725298544</v>
+        <v>1957295.158499206</v>
       </c>
     </row>
     <row r="4">
@@ -40566,28 +40566,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1291.771062419065</v>
+        <v>1395.395028274876</v>
       </c>
       <c r="AB4" t="n">
-        <v>1767.458156518964</v>
+        <v>1909.241038169612</v>
       </c>
       <c r="AC4" t="n">
-        <v>1598.774430703896</v>
+        <v>1727.025753123331</v>
       </c>
       <c r="AD4" t="n">
-        <v>1291771.062419066</v>
+        <v>1395395.028274876</v>
       </c>
       <c r="AE4" t="n">
-        <v>1767458.156518964</v>
+        <v>1909241.038169612</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.53149150110424e-07</v>
+        <v>1.849660457275985e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.81423611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1598774.430703896</v>
+        <v>1727025.753123331</v>
       </c>
     </row>
     <row r="5">
@@ -40672,28 +40672,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1211.946078682526</v>
+        <v>1304.046877745734</v>
       </c>
       <c r="AB5" t="n">
-        <v>1658.238092140892</v>
+        <v>1784.254468619661</v>
       </c>
       <c r="AC5" t="n">
-        <v>1499.978175978745</v>
+        <v>1613.967726351475</v>
       </c>
       <c r="AD5" t="n">
-        <v>1211946.078682526</v>
+        <v>1304046.877745734</v>
       </c>
       <c r="AE5" t="n">
-        <v>1658238.092140892</v>
+        <v>1784254.468619661</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.90871854313667e-07</v>
+        <v>1.922864314508795e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.17476851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>1499978.175978744</v>
+        <v>1613967.726351475</v>
       </c>
     </row>
     <row r="6">
@@ -40778,28 +40778,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1148.493389674099</v>
+        <v>1240.679440083328</v>
       </c>
       <c r="AB6" t="n">
-        <v>1571.419323704491</v>
+        <v>1697.55234483591</v>
       </c>
       <c r="AC6" t="n">
-        <v>1421.445268951007</v>
+        <v>1535.54033157445</v>
       </c>
       <c r="AD6" t="n">
-        <v>1148493.389674099</v>
+        <v>1240679.440083328</v>
       </c>
       <c r="AE6" t="n">
-        <v>1571419.323704491</v>
+        <v>1697552.34483591</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.013970778913891e-06</v>
+        <v>1.967689583915669e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.80729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1421445.268951007</v>
+        <v>1535540.33157445</v>
       </c>
     </row>
     <row r="7">
@@ -40884,28 +40884,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1110.508915165355</v>
+        <v>1202.694965574584</v>
       </c>
       <c r="AB7" t="n">
-        <v>1519.447289924881</v>
+        <v>1645.5803110563</v>
       </c>
       <c r="AC7" t="n">
-        <v>1374.433373132115</v>
+        <v>1488.528435755558</v>
       </c>
       <c r="AD7" t="n">
-        <v>1110508.915165355</v>
+        <v>1202694.965574584</v>
       </c>
       <c r="AE7" t="n">
-        <v>1519447.289924881</v>
+        <v>1645580.3110563</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.029037703353365e-06</v>
+        <v>1.99692812894845e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.57581018518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>1374433.373132115</v>
+        <v>1488528.435755558</v>
       </c>
     </row>
     <row r="8">
@@ -40990,28 +40990,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1076.279320068869</v>
+        <v>1168.294778277505</v>
       </c>
       <c r="AB8" t="n">
-        <v>1472.61284781071</v>
+        <v>1598.512457167282</v>
       </c>
       <c r="AC8" t="n">
-        <v>1332.068744440768</v>
+        <v>1445.95267178156</v>
       </c>
       <c r="AD8" t="n">
-        <v>1076279.320068869</v>
+        <v>1168294.778277505</v>
       </c>
       <c r="AE8" t="n">
-        <v>1472612.84781071</v>
+        <v>1598512.457167282</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.041611938087779e-06</v>
+        <v>2.02132941469272e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.38773148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>1332068.744440768</v>
+        <v>1445952.67178156</v>
       </c>
     </row>
     <row r="9">
@@ -41096,28 +41096,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1047.208643875216</v>
+        <v>1139.224102083852</v>
       </c>
       <c r="AB9" t="n">
-        <v>1432.837066134836</v>
+        <v>1558.736675491408</v>
       </c>
       <c r="AC9" t="n">
-        <v>1296.089107542379</v>
+        <v>1409.973034883171</v>
       </c>
       <c r="AD9" t="n">
-        <v>1047208.643875216</v>
+        <v>1139224.102083852</v>
       </c>
       <c r="AE9" t="n">
-        <v>1432837.066134836</v>
+        <v>1558736.675491408</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.049477758934858e-06</v>
+        <v>2.036593655114246e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.27199074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>1296089.107542379</v>
+        <v>1409973.034883171</v>
       </c>
     </row>
     <row r="10">
@@ -41202,28 +41202,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1014.441134777959</v>
+        <v>1095.104018394585</v>
       </c>
       <c r="AB10" t="n">
-        <v>1388.003114587493</v>
+        <v>1498.369630547032</v>
       </c>
       <c r="AC10" t="n">
-        <v>1255.534045405868</v>
+        <v>1355.367335982607</v>
       </c>
       <c r="AD10" t="n">
-        <v>1014441.134777959</v>
+        <v>1095104.018394585</v>
       </c>
       <c r="AE10" t="n">
-        <v>1388003.114587493</v>
+        <v>1498369.630547032</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.057343579781936e-06</v>
+        <v>2.051857895535771e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.15914351851852</v>
       </c>
       <c r="AH10" t="n">
-        <v>1255534.045405868</v>
+        <v>1355367.335982607</v>
       </c>
     </row>
     <row r="11">
@@ -41308,28 +41308,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>996.0772012953367</v>
+        <v>1076.740084911963</v>
       </c>
       <c r="AB11" t="n">
-        <v>1362.876770637001</v>
+        <v>1473.243286596542</v>
       </c>
       <c r="AC11" t="n">
-        <v>1232.805724456967</v>
+        <v>1332.639015033706</v>
       </c>
       <c r="AD11" t="n">
-        <v>996077.2012953367</v>
+        <v>1076740.084911963</v>
       </c>
       <c r="AE11" t="n">
-        <v>1362876.770637001</v>
+        <v>1473243.286596542</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.062162779878386e-06</v>
+        <v>2.061209930160227e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.08969907407407</v>
       </c>
       <c r="AH11" t="n">
-        <v>1232805.724456967</v>
+        <v>1332639.015033706</v>
       </c>
     </row>
     <row r="12">
@@ -41414,28 +41414,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>994.5099093091561</v>
+        <v>1075.172792925782</v>
       </c>
       <c r="AB12" t="n">
-        <v>1360.732332597467</v>
+        <v>1471.098848557007</v>
       </c>
       <c r="AC12" t="n">
-        <v>1230.865948574188</v>
+        <v>1330.699239150927</v>
       </c>
       <c r="AD12" t="n">
-        <v>994509.9093091561</v>
+        <v>1075172.792925782</v>
       </c>
       <c r="AE12" t="n">
-        <v>1360732.332597467</v>
+        <v>1471098.848557007</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.062550531610284e-06</v>
+        <v>2.061962392716217e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.08391203703704</v>
       </c>
       <c r="AH12" t="n">
-        <v>1230865.948574188</v>
+        <v>1330699.239150927</v>
       </c>
     </row>
     <row r="13">
@@ -41520,28 +41520,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>998.0892589384341</v>
+        <v>1078.75214255506</v>
       </c>
       <c r="AB13" t="n">
-        <v>1365.629756670006</v>
+        <v>1475.996272629546</v>
       </c>
       <c r="AC13" t="n">
-        <v>1235.295969366822</v>
+        <v>1335.129259943561</v>
       </c>
       <c r="AD13" t="n">
-        <v>998089.2589384341</v>
+        <v>1078752.14255506</v>
       </c>
       <c r="AE13" t="n">
-        <v>1365629.756670006</v>
+        <v>1475996.272629546</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.0622735660875e-06</v>
+        <v>2.061424919461938e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.08969907407407</v>
       </c>
       <c r="AH13" t="n">
-        <v>1235295.969366821</v>
+        <v>1335129.259943561</v>
       </c>
     </row>
   </sheetData>
@@ -41817,28 +41817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2952.740968743798</v>
+        <v>3120.471257746969</v>
       </c>
       <c r="AB2" t="n">
-        <v>4040.070459173341</v>
+        <v>4269.566440325597</v>
       </c>
       <c r="AC2" t="n">
-        <v>3654.491804824187</v>
+        <v>3862.085011634895</v>
       </c>
       <c r="AD2" t="n">
-        <v>2952740.968743797</v>
+        <v>3120471.257746968</v>
       </c>
       <c r="AE2" t="n">
-        <v>4040070.459173341</v>
+        <v>4269566.440325597</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.80545199556383e-07</v>
+        <v>1.089330501172671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.60590277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>3654491.804824187</v>
+        <v>3862085.011634895</v>
       </c>
     </row>
     <row r="3">
@@ -41923,28 +41923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1819.934663127564</v>
+        <v>1939.632377968217</v>
       </c>
       <c r="AB3" t="n">
-        <v>2490.114895941897</v>
+        <v>2653.890590077364</v>
       </c>
       <c r="AC3" t="n">
-        <v>2252.461825171408</v>
+        <v>2400.606996919217</v>
       </c>
       <c r="AD3" t="n">
-        <v>1819934.663127564</v>
+        <v>1939632.377968217</v>
       </c>
       <c r="AE3" t="n">
-        <v>2490114.895941897</v>
+        <v>2653890.590077364</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.943797039167058e-07</v>
+        <v>1.490567903498685e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.44155092592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>2252461.825171408</v>
+        <v>2400606.996919217</v>
       </c>
     </row>
     <row r="4">
@@ -42029,28 +42029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1561.766632437194</v>
+        <v>1669.648108774315</v>
       </c>
       <c r="AB4" t="n">
-        <v>2136.878006781655</v>
+        <v>2284.486202100938</v>
       </c>
       <c r="AC4" t="n">
-        <v>1932.937368941532</v>
+        <v>2066.458045268946</v>
       </c>
       <c r="AD4" t="n">
-        <v>1561766.632437194</v>
+        <v>1669648.108774315</v>
       </c>
       <c r="AE4" t="n">
-        <v>2136878.006781655</v>
+        <v>2284486.202100938</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.765293050676134e-07</v>
+        <v>1.644712776733766e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.62152777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1932937.368941532</v>
+        <v>2066458.045268946</v>
       </c>
     </row>
     <row r="5">
@@ -42135,28 +42135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1440.076297405548</v>
+        <v>1547.872432888097</v>
       </c>
       <c r="AB5" t="n">
-        <v>1970.375921792671</v>
+        <v>2117.867349989756</v>
       </c>
       <c r="AC5" t="n">
-        <v>1782.326009256753</v>
+        <v>1915.741062552228</v>
       </c>
       <c r="AD5" t="n">
-        <v>1440076.297405548</v>
+        <v>1547872.432888097</v>
       </c>
       <c r="AE5" t="n">
-        <v>1970375.921792671</v>
+        <v>2117867.349989756</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.209402655338614e-07</v>
+        <v>1.728045157845909e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1782326.009256753</v>
+        <v>1915741.062552228</v>
       </c>
     </row>
     <row r="6">
@@ -42241,28 +42241,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1375.091795047618</v>
+        <v>1470.901189334593</v>
       </c>
       <c r="AB6" t="n">
-        <v>1881.461258752644</v>
+        <v>2012.551898828246</v>
       </c>
       <c r="AC6" t="n">
-        <v>1701.897236864753</v>
+        <v>1820.476770238408</v>
       </c>
       <c r="AD6" t="n">
-        <v>1375091.795047618</v>
+        <v>1470901.189334593</v>
       </c>
       <c r="AE6" t="n">
-        <v>1881461.258752644</v>
+        <v>2012551.898828246</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.482700873592446e-07</v>
+        <v>1.779326623145689e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.28761574074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>1701897.236864753</v>
+        <v>1820476.770238408</v>
       </c>
     </row>
     <row r="7">
@@ -42347,28 +42347,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1319.306698165875</v>
+        <v>1427.017492793852</v>
       </c>
       <c r="AB7" t="n">
-        <v>1805.133628134263</v>
+        <v>1952.50828920915</v>
       </c>
       <c r="AC7" t="n">
-        <v>1632.854208186087</v>
+        <v>1766.163638449623</v>
       </c>
       <c r="AD7" t="n">
-        <v>1319306.698165875</v>
+        <v>1427017.492793852</v>
       </c>
       <c r="AE7" t="n">
-        <v>1805133.628134263</v>
+        <v>1952508.28920915</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.660451472573942e-07</v>
+        <v>1.812679607412928e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1632854.208186087</v>
+        <v>1766163.638449623</v>
       </c>
     </row>
     <row r="8">
@@ -42453,28 +42453,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1283.639252509439</v>
+        <v>1379.533898142435</v>
       </c>
       <c r="AB8" t="n">
-        <v>1756.331855450479</v>
+        <v>1887.53914017873</v>
       </c>
       <c r="AC8" t="n">
-        <v>1588.710008193526</v>
+        <v>1707.395053817894</v>
       </c>
       <c r="AD8" t="n">
-        <v>1283639.252509439</v>
+        <v>1379533.898142435</v>
       </c>
       <c r="AE8" t="n">
-        <v>1756331.855450479</v>
+        <v>1887539.14017873</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.797100581700859e-07</v>
+        <v>1.838320340062818e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.76388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1588710.008193526</v>
+        <v>1707395.053817894</v>
       </c>
     </row>
     <row r="9">
@@ -42559,28 +42559,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1254.759722582698</v>
+        <v>1350.654368215694</v>
       </c>
       <c r="AB9" t="n">
-        <v>1716.817608529771</v>
+        <v>1848.024893258022</v>
       </c>
       <c r="AC9" t="n">
-        <v>1552.966945540336</v>
+        <v>1671.651991164704</v>
       </c>
       <c r="AD9" t="n">
-        <v>1254759.722582698</v>
+        <v>1350654.368215694</v>
       </c>
       <c r="AE9" t="n">
-        <v>1716817.608529771</v>
+        <v>1848024.893258022</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.903323912623735e-07</v>
+        <v>1.858252003333631e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.59606481481481</v>
       </c>
       <c r="AH9" t="n">
-        <v>1552966.945540336</v>
+        <v>1671651.991164704</v>
       </c>
     </row>
     <row r="10">
@@ -42665,28 +42665,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1230.089713765764</v>
+        <v>1325.813767198167</v>
       </c>
       <c r="AB10" t="n">
-        <v>1683.063014102466</v>
+        <v>1814.036887055871</v>
       </c>
       <c r="AC10" t="n">
-        <v>1522.433842230303</v>
+        <v>1640.907752572019</v>
       </c>
       <c r="AD10" t="n">
-        <v>1230089.713765764</v>
+        <v>1325813.767198168</v>
       </c>
       <c r="AE10" t="n">
-        <v>1683063.014102466</v>
+        <v>1814036.887055871</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.98125660767268e-07</v>
+        <v>1.872875233673022e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.47453703703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>1522433.842230303</v>
+        <v>1640907.752572019</v>
       </c>
     </row>
     <row r="11">
@@ -42771,28 +42771,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1208.045423000757</v>
+        <v>1303.76947643316</v>
       </c>
       <c r="AB11" t="n">
-        <v>1652.901042952312</v>
+        <v>1783.874915905717</v>
       </c>
       <c r="AC11" t="n">
-        <v>1495.150487274127</v>
+        <v>1613.624397615843</v>
       </c>
       <c r="AD11" t="n">
-        <v>1208045.423000757</v>
+        <v>1303769.47643316</v>
       </c>
       <c r="AE11" t="n">
-        <v>1652901.042952312</v>
+        <v>1783874.915905717</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.004317573524581e-06</v>
+        <v>1.884493690655003e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.37905092592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>1495150.487274127</v>
+        <v>1613624.397615843</v>
       </c>
     </row>
     <row r="12">
@@ -42877,28 +42877,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1183.699706584313</v>
+        <v>1279.423760016717</v>
       </c>
       <c r="AB12" t="n">
-        <v>1619.590159694129</v>
+        <v>1750.564032647534</v>
       </c>
       <c r="AC12" t="n">
-        <v>1465.018747961986</v>
+        <v>1583.492658303703</v>
       </c>
       <c r="AD12" t="n">
-        <v>1183699.706584313</v>
+        <v>1279423.760016717</v>
       </c>
       <c r="AE12" t="n">
-        <v>1619590.159694129</v>
+        <v>1750564.032647534</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.009868943582862e-06</v>
+        <v>1.894910238294021e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.29513888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>1465018.747961986</v>
+        <v>1583492.658303703</v>
       </c>
     </row>
     <row r="13">
@@ -42983,28 +42983,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1163.352434621434</v>
+        <v>1259.076488053838</v>
       </c>
       <c r="AB13" t="n">
-        <v>1591.750124536232</v>
+        <v>1722.723997489637</v>
       </c>
       <c r="AC13" t="n">
-        <v>1439.835726685825</v>
+        <v>1558.309637027541</v>
       </c>
       <c r="AD13" t="n">
-        <v>1163352.434621434</v>
+        <v>1259076.488053838</v>
       </c>
       <c r="AE13" t="n">
-        <v>1591750.124536232</v>
+        <v>1722723.997489637</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.014459499592595e-06</v>
+        <v>1.903523921918593e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.22569444444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>1439835.726685825</v>
+        <v>1558309.637027541</v>
       </c>
     </row>
     <row r="14">
@@ -43089,28 +43089,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1143.174309260391</v>
+        <v>1227.082213697813</v>
       </c>
       <c r="AB14" t="n">
-        <v>1564.141523221188</v>
+        <v>1678.948019827957</v>
       </c>
       <c r="AC14" t="n">
-        <v>1414.862051531373</v>
+        <v>1518.711577233921</v>
       </c>
       <c r="AD14" t="n">
-        <v>1143174.309260391</v>
+        <v>1227082.213697813</v>
       </c>
       <c r="AE14" t="n">
-        <v>1564141.523221188</v>
+        <v>1678948.019827957</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.019210191277085e-06</v>
+        <v>1.912438082878907e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.15335648148148</v>
       </c>
       <c r="AH14" t="n">
-        <v>1414862.051531373</v>
+        <v>1518711.577233921</v>
       </c>
     </row>
     <row r="15">
@@ -43195,28 +43195,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1127.356427110672</v>
+        <v>1211.264331548095</v>
       </c>
       <c r="AB15" t="n">
-        <v>1542.498799028234</v>
+        <v>1657.305295635002</v>
       </c>
       <c r="AC15" t="n">
-        <v>1395.28487855964</v>
+        <v>1499.134404262188</v>
       </c>
       <c r="AD15" t="n">
-        <v>1127356.427110672</v>
+        <v>1211264.331548095</v>
       </c>
       <c r="AE15" t="n">
-        <v>1542498.799028234</v>
+        <v>1657305.295635002</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.021238576490688e-06</v>
+        <v>1.916244129131625e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.1244212962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>1395284.87855964</v>
+        <v>1499134.404262188</v>
       </c>
     </row>
     <row r="16">
@@ -43301,28 +43301,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1115.440238877688</v>
+        <v>1199.34814331511</v>
       </c>
       <c r="AB16" t="n">
-        <v>1526.194544582743</v>
+        <v>1641.001041189511</v>
       </c>
       <c r="AC16" t="n">
-        <v>1380.536679275262</v>
+        <v>1484.38620497781</v>
       </c>
       <c r="AD16" t="n">
-        <v>1115440.238877688</v>
+        <v>1199348.14331511</v>
       </c>
       <c r="AE16" t="n">
-        <v>1526194.544582743</v>
+        <v>1641001.041189511</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.024227775752839e-06</v>
+        <v>1.921853039398788e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.08101851851852</v>
       </c>
       <c r="AH16" t="n">
-        <v>1380536.679275262</v>
+        <v>1484386.20497781</v>
       </c>
     </row>
     <row r="17">
@@ -43407,28 +43407,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1109.426937668297</v>
+        <v>1193.334842105719</v>
       </c>
       <c r="AB17" t="n">
-        <v>1517.966880579927</v>
+        <v>1632.773377186696</v>
       </c>
       <c r="AC17" t="n">
-        <v>1373.094251977277</v>
+        <v>1476.943777679825</v>
       </c>
       <c r="AD17" t="n">
-        <v>1109426.937668297</v>
+        <v>1193334.842105719</v>
       </c>
       <c r="AE17" t="n">
-        <v>1517966.880579927</v>
+        <v>1632773.377186696</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.024814939893619e-06</v>
+        <v>1.922954789629838e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.07233796296296</v>
       </c>
       <c r="AH17" t="n">
-        <v>1373094.251977277</v>
+        <v>1476943.777679825</v>
       </c>
     </row>
     <row r="18">
@@ -43513,28 +43513,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1112.810609338506</v>
+        <v>1196.718513775928</v>
       </c>
       <c r="AB18" t="n">
-        <v>1522.596569436166</v>
+        <v>1637.403066042934</v>
       </c>
       <c r="AC18" t="n">
-        <v>1377.282089826884</v>
+        <v>1481.131615529432</v>
       </c>
       <c r="AD18" t="n">
-        <v>1112810.609338506</v>
+        <v>1196718.513775928</v>
       </c>
       <c r="AE18" t="n">
-        <v>1522596.569436166</v>
+        <v>1637403.066042934</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.024708182777113e-06</v>
+        <v>1.922754471406011e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.07233796296296</v>
       </c>
       <c r="AH18" t="n">
-        <v>1377282.089826884</v>
+        <v>1481131.615529432</v>
       </c>
     </row>
   </sheetData>
@@ -43810,28 +43810,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>526.6976541587015</v>
+        <v>609.0540499732305</v>
       </c>
       <c r="AB2" t="n">
-        <v>720.6509666805049</v>
+        <v>833.3346207417005</v>
       </c>
       <c r="AC2" t="n">
-        <v>651.8730498605008</v>
+        <v>753.802334130598</v>
       </c>
       <c r="AD2" t="n">
-        <v>526697.6541587015</v>
+        <v>609054.0499732305</v>
       </c>
       <c r="AE2" t="n">
-        <v>720650.9666805048</v>
+        <v>833334.6207417005</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.173408984504588e-06</v>
+        <v>2.934606820787687e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.91261574074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>651873.0498605008</v>
+        <v>753802.334130598</v>
       </c>
     </row>
   </sheetData>
@@ -44107,28 +44107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1416.361957295494</v>
+        <v>1535.144692304123</v>
       </c>
       <c r="AB2" t="n">
-        <v>1937.928915451247</v>
+        <v>2100.452693814478</v>
       </c>
       <c r="AC2" t="n">
-        <v>1752.975699660895</v>
+        <v>1899.988436720695</v>
       </c>
       <c r="AD2" t="n">
-        <v>1416361.957295494</v>
+        <v>1535144.692304123</v>
       </c>
       <c r="AE2" t="n">
-        <v>1937928.915451247</v>
+        <v>2100452.693814478</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.56245881154195e-07</v>
+        <v>1.763252979143503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.86689814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>1752975.699660895</v>
+        <v>1899988.436720695</v>
       </c>
     </row>
     <row r="3">
@@ -44213,28 +44213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1064.399699712521</v>
+        <v>1161.639881627036</v>
       </c>
       <c r="AB3" t="n">
-        <v>1456.358627147294</v>
+        <v>1589.406933976791</v>
       </c>
       <c r="AC3" t="n">
-        <v>1317.365803784526</v>
+        <v>1437.716166944687</v>
       </c>
       <c r="AD3" t="n">
-        <v>1064399.699712521</v>
+        <v>1161639.881627036</v>
       </c>
       <c r="AE3" t="n">
-        <v>1456358.627147294</v>
+        <v>1589406.933976791</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.013915050619046e-06</v>
+        <v>2.087938491677858e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.77662037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1317365.803784526</v>
+        <v>1437716.166944687</v>
       </c>
     </row>
     <row r="4">
@@ -44319,28 +44319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>955.6202142605134</v>
+        <v>1052.775055320457</v>
       </c>
       <c r="AB4" t="n">
-        <v>1307.521736139656</v>
+        <v>1440.453275846955</v>
       </c>
       <c r="AC4" t="n">
-        <v>1182.733696760769</v>
+        <v>1302.978436888991</v>
       </c>
       <c r="AD4" t="n">
-        <v>955620.2142605134</v>
+        <v>1052775.055320457</v>
       </c>
       <c r="AE4" t="n">
-        <v>1307521.736139656</v>
+        <v>1440453.275846955</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.069645987476868e-06</v>
+        <v>2.202704288054654e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.90277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1182733.696760769</v>
+        <v>1302978.436888991</v>
       </c>
     </row>
     <row r="5">
@@ -44425,28 +44425,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>893.77884257073</v>
+        <v>980.1198261648813</v>
       </c>
       <c r="AB5" t="n">
-        <v>1222.907643144925</v>
+        <v>1341.043185993807</v>
       </c>
       <c r="AC5" t="n">
-        <v>1106.19505404483</v>
+        <v>1213.05590648849</v>
       </c>
       <c r="AD5" t="n">
-        <v>893778.84257073</v>
+        <v>980119.8261648812</v>
       </c>
       <c r="AE5" t="n">
-        <v>1222907.643144926</v>
+        <v>1341043.185993807</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.099980548045049e-06</v>
+        <v>2.265171746842025e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.46585648148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>1106195.05404483</v>
+        <v>1213055.90648849</v>
       </c>
     </row>
     <row r="6">
@@ -44531,28 +44531,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>848.2156207493601</v>
+        <v>934.5566043435113</v>
       </c>
       <c r="AB6" t="n">
-        <v>1160.566032941447</v>
+        <v>1278.701575790328</v>
       </c>
       <c r="AC6" t="n">
-        <v>1049.803239622172</v>
+        <v>1156.664092065832</v>
       </c>
       <c r="AD6" t="n">
-        <v>848215.6207493602</v>
+        <v>934556.6043435113</v>
       </c>
       <c r="AE6" t="n">
-        <v>1160566.032941447</v>
+        <v>1278701.575790328</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.117029041387632e-06</v>
+        <v>2.30027942716826e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.22858796296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>1049803.239622172</v>
+        <v>1156664.092065832</v>
       </c>
     </row>
     <row r="7">
@@ -44637,28 +44637,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>840.3862298464885</v>
+        <v>926.7272134406396</v>
       </c>
       <c r="AB7" t="n">
-        <v>1149.853514899789</v>
+        <v>1267.98905774867</v>
       </c>
       <c r="AC7" t="n">
-        <v>1040.113109267296</v>
+        <v>1146.973961710956</v>
       </c>
       <c r="AD7" t="n">
-        <v>840386.2298464885</v>
+        <v>926727.2134406397</v>
       </c>
       <c r="AE7" t="n">
-        <v>1149853.514899789</v>
+        <v>1267989.05774867</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.11985086097537e-06</v>
+        <v>2.306090353567085e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.19097222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1040113.109267296</v>
+        <v>1146973.961710956</v>
       </c>
     </row>
     <row r="8">
@@ -44743,28 +44743,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>843.8774359288831</v>
+        <v>930.2184195230344</v>
       </c>
       <c r="AB8" t="n">
-        <v>1154.630337082864</v>
+        <v>1272.765879931745</v>
       </c>
       <c r="AC8" t="n">
-        <v>1044.43403824553</v>
+        <v>1151.29489068919</v>
       </c>
       <c r="AD8" t="n">
-        <v>843877.435928883</v>
+        <v>930218.4195230344</v>
       </c>
       <c r="AE8" t="n">
-        <v>1154630.337082864</v>
+        <v>1272765.879931745</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.119733285159214e-06</v>
+        <v>2.305848231633801e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.19097222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1044434.03824553</v>
+        <v>1151294.89068919</v>
       </c>
     </row>
   </sheetData>
@@ -45040,28 +45040,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1853.579844938532</v>
+        <v>1988.544851174672</v>
       </c>
       <c r="AB2" t="n">
-        <v>2536.149718016326</v>
+        <v>2720.814793784458</v>
       </c>
       <c r="AC2" t="n">
-        <v>2294.103148437333</v>
+        <v>2461.144048553216</v>
       </c>
       <c r="AD2" t="n">
-        <v>1853579.844938532</v>
+        <v>1988544.851174672</v>
       </c>
       <c r="AE2" t="n">
-        <v>2536149.718016326</v>
+        <v>2720814.793784458</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.487634454900095e-07</v>
+        <v>1.483438241688574e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.87210648148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>2294103.148437333</v>
+        <v>2461144.048553216</v>
       </c>
     </row>
     <row r="3">
@@ -45146,28 +45146,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1309.938729791071</v>
+        <v>1411.290495750033</v>
       </c>
       <c r="AB3" t="n">
-        <v>1792.31596051826</v>
+        <v>1930.989918027655</v>
       </c>
       <c r="AC3" t="n">
-        <v>1621.259840777646</v>
+        <v>1746.698950412467</v>
       </c>
       <c r="AD3" t="n">
-        <v>1309938.729791071</v>
+        <v>1411290.495750033</v>
       </c>
       <c r="AE3" t="n">
-        <v>1792315.96051826</v>
+        <v>1930989.918027655</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.298839402793383e-07</v>
+        <v>1.842271288283436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.61284722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1621259.840777646</v>
+        <v>1746698.950412467</v>
       </c>
     </row>
     <row r="4">
@@ -45252,28 +45252,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1165.519538284156</v>
+        <v>1255.524745568324</v>
       </c>
       <c r="AB4" t="n">
-        <v>1594.715251373435</v>
+        <v>1717.864346729137</v>
       </c>
       <c r="AC4" t="n">
-        <v>1442.517865979266</v>
+        <v>1553.913784515061</v>
       </c>
       <c r="AD4" t="n">
-        <v>1165519.538284156</v>
+        <v>1255524.745568324</v>
       </c>
       <c r="AE4" t="n">
-        <v>1594715.251373434</v>
+        <v>1717864.346729137</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.956533199497135e-07</v>
+        <v>1.972572538328196e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.44965277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1442517.865979266</v>
+        <v>1553913.784515061</v>
       </c>
     </row>
     <row r="5">
@@ -45358,28 +45358,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1082.703734458622</v>
+        <v>1183.88481870844</v>
       </c>
       <c r="AB5" t="n">
-        <v>1481.40301500393</v>
+        <v>1619.84343826893</v>
       </c>
       <c r="AC5" t="n">
-        <v>1340.019990414144</v>
+        <v>1465.247853985087</v>
       </c>
       <c r="AD5" t="n">
-        <v>1082703.734458622</v>
+        <v>1183884.81870844</v>
       </c>
       <c r="AE5" t="n">
-        <v>1481403.01500393</v>
+        <v>1619843.43826893</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.030745415815146e-06</v>
+        <v>2.042096441105951e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.88831018518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>1340019.990414144</v>
+        <v>1465247.853985087</v>
       </c>
     </row>
     <row r="6">
@@ -45464,28 +45464,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1037.991563647444</v>
+        <v>1128.082022277632</v>
       </c>
       <c r="AB6" t="n">
-        <v>1420.225850338317</v>
+        <v>1543.491590346668</v>
       </c>
       <c r="AC6" t="n">
-        <v>1284.681488481527</v>
+        <v>1396.182919268034</v>
       </c>
       <c r="AD6" t="n">
-        <v>1037991.563647444</v>
+        <v>1128082.022277632</v>
       </c>
       <c r="AE6" t="n">
-        <v>1420225.850338317</v>
+        <v>1543491.590346668</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.050498869778107e-06</v>
+        <v>2.081231670250203e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.59027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1284681.488481527</v>
+        <v>1396182.919268034</v>
       </c>
     </row>
     <row r="7">
@@ -45570,28 +45570,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>997.9113224403643</v>
+        <v>1087.83118886996</v>
       </c>
       <c r="AB7" t="n">
-        <v>1365.386296103343</v>
+        <v>1488.418624336848</v>
       </c>
       <c r="AC7" t="n">
-        <v>1235.075744334941</v>
+        <v>1346.366039838797</v>
       </c>
       <c r="AD7" t="n">
-        <v>997911.3224403643</v>
+        <v>1087831.18886996</v>
       </c>
       <c r="AE7" t="n">
-        <v>1365386.296103343</v>
+        <v>1488418.624336848</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.066063912299065e-06</v>
+        <v>2.112068885191949e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.36168981481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>1235075.744334941</v>
+        <v>1346366.039838797</v>
       </c>
     </row>
     <row r="8">
@@ -45676,28 +45676,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>962.111689440748</v>
+        <v>1052.031555870344</v>
       </c>
       <c r="AB8" t="n">
-        <v>1316.403658864926</v>
+        <v>1439.435987098431</v>
       </c>
       <c r="AC8" t="n">
-        <v>1190.767941246996</v>
+        <v>1302.058236750852</v>
       </c>
       <c r="AD8" t="n">
-        <v>962111.6894407481</v>
+        <v>1052031.555870344</v>
       </c>
       <c r="AE8" t="n">
-        <v>1316403.658864926</v>
+        <v>1439435.987098431</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.076478340749451e-06</v>
+        <v>2.132701785371153e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.21412037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1190767.941246996</v>
+        <v>1302058.236750852</v>
       </c>
     </row>
     <row r="9">
@@ -45782,28 +45782,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>939.2179862114842</v>
+        <v>1018.04722702145</v>
       </c>
       <c r="AB9" t="n">
-        <v>1285.079484107743</v>
+        <v>1392.937129084599</v>
       </c>
       <c r="AC9" t="n">
-        <v>1162.433301764883</v>
+        <v>1259.997164484304</v>
       </c>
       <c r="AD9" t="n">
-        <v>939217.9862114842</v>
+        <v>1018047.22702145</v>
       </c>
       <c r="AE9" t="n">
-        <v>1285079.484107743</v>
+        <v>1392937.129084599</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.082364756830105e-06</v>
+        <v>2.144363859385487e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.13020833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1162433.301764883</v>
+        <v>1259997.164484303</v>
       </c>
     </row>
     <row r="10">
@@ -45888,28 +45888,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>934.2101357651261</v>
+        <v>1013.039376575092</v>
       </c>
       <c r="AB10" t="n">
-        <v>1278.227522196267</v>
+        <v>1386.085167173123</v>
       </c>
       <c r="AC10" t="n">
-        <v>1156.235281481449</v>
+        <v>1253.799144200869</v>
       </c>
       <c r="AD10" t="n">
-        <v>934210.1357651261</v>
+        <v>1013039.376575092</v>
       </c>
       <c r="AE10" t="n">
-        <v>1278227.522196267</v>
+        <v>1386085.167173123</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.084232561932619e-06</v>
+        <v>2.148064325178496e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1156235.281481449</v>
+        <v>1253799.144200869</v>
       </c>
     </row>
     <row r="11">
@@ -45994,28 +45994,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>938.7963907296609</v>
+        <v>1017.625631539627</v>
       </c>
       <c r="AB11" t="n">
-        <v>1284.502638570032</v>
+        <v>1392.360283546888</v>
       </c>
       <c r="AC11" t="n">
-        <v>1161.911509555684</v>
+        <v>1259.475372275104</v>
       </c>
       <c r="AD11" t="n">
-        <v>938796.3907296609</v>
+        <v>1017625.631539627</v>
       </c>
       <c r="AE11" t="n">
-        <v>1284502.638570032</v>
+        <v>1392360.283546888</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.084062761468754e-06</v>
+        <v>2.147727919197313e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.10706018518519</v>
       </c>
       <c r="AH11" t="n">
-        <v>1161911.509555684</v>
+        <v>1259475.372275104</v>
       </c>
     </row>
   </sheetData>
